--- a/ZBP_03_strategie_domacnosti.xlsx
+++ b/ZBP_03_strategie_domacnosti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>trideni</t>
   </si>
@@ -83,6 +83,9 @@
     <t>5. 1. 2021</t>
   </si>
   <si>
+    <t>26. 1. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -173,10 +176,10 @@
     <t>Velké obavy</t>
   </si>
   <si>
-    <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 12. 1. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+  </si>
+  <si>
+    <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,7 +562,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,16 +629,19 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
         <v>0.52</v>
@@ -694,16 +700,19 @@
       <c r="V2" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
         <v>0.18</v>
@@ -762,16 +771,19 @@
       <c r="V3" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
         <v>0.68</v>
@@ -830,16 +842,19 @@
       <c r="V4" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
         <v>0.63</v>
@@ -898,16 +913,19 @@
       <c r="V5" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
         <v>0.42</v>
@@ -966,16 +984,19 @@
       <c r="V6" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
         <v>0.55</v>
@@ -1034,16 +1055,19 @@
       <c r="V7" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
         <v>0.6</v>
@@ -1102,16 +1126,19 @@
       <c r="V8" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
         <v>0.4</v>
@@ -1170,16 +1197,19 @@
       <c r="V9" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
         <v>0.58</v>
@@ -1238,16 +1268,19 @@
       <c r="V10" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
         <v>0.55</v>
@@ -1306,16 +1339,19 @@
       <c r="V11" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
         <v>0.59</v>
@@ -1374,16 +1410,19 @@
       <c r="V12" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
         <v>0.57</v>
@@ -1442,16 +1481,19 @@
       <c r="V13" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
         <v>0.45</v>
@@ -1510,16 +1552,19 @@
       <c r="V14" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
         <v>0.51</v>
@@ -1578,16 +1623,19 @@
       <c r="V15" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
         <v>0.54</v>
@@ -1646,16 +1694,19 @@
       <c r="V16" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
         <v>0.47</v>
@@ -1714,16 +1765,19 @@
       <c r="V17" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
         <v>0.6</v>
@@ -1782,16 +1836,19 @@
       <c r="V18" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
         <v>0.52</v>
@@ -1850,16 +1907,19 @@
       <c r="V19" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
         <v>0.45</v>
@@ -1918,16 +1978,19 @@
       <c r="V20" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
         <v>0.39</v>
@@ -1986,16 +2049,19 @@
       <c r="V21" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
         <v>0.45</v>
@@ -2054,16 +2120,19 @@
       <c r="V22" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
         <v>0.58</v>
@@ -2122,16 +2191,19 @@
       <c r="V23" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" t="n">
         <v>0.76</v>
@@ -2190,16 +2262,19 @@
       <c r="V24" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
         <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
       </c>
       <c r="D25" t="n">
         <v>0.47</v>
@@ -2258,16 +2333,19 @@
       <c r="V25" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
         <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
       </c>
       <c r="D26" t="n">
         <v>0.19</v>
@@ -2326,16 +2404,19 @@
       <c r="V26" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
         <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
       </c>
       <c r="D27" t="n">
         <v>0.09</v>
@@ -2394,16 +2475,19 @@
       <c r="V27" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28" t="n">
         <v>0.18</v>
@@ -2462,16 +2546,19 @@
       <c r="V28" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" t="n">
         <v>0.29</v>
@@ -2530,16 +2617,19 @@
       <c r="V29" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" t="n">
         <v>0.11</v>
@@ -2598,16 +2688,19 @@
       <c r="V30" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D31" t="n">
         <v>0.21</v>
@@ -2666,16 +2759,19 @@
       <c r="V31" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D32" t="n">
         <v>0.18</v>
@@ -2734,16 +2830,19 @@
       <c r="V32" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D33" t="n">
         <v>0.29</v>
@@ -2802,16 +2901,19 @@
       <c r="V33" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D34" t="n">
         <v>0.22</v>
@@ -2870,16 +2972,19 @@
       <c r="V34" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" t="n">
         <v>0.14</v>
@@ -2938,16 +3043,19 @@
       <c r="V35" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D36" t="n">
         <v>0.21</v>
@@ -3006,16 +3114,19 @@
       <c r="V36" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D37" t="n">
         <v>0.16</v>
@@ -3074,16 +3185,19 @@
       <c r="V37" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" t="n">
         <v>0.11</v>
@@ -3142,16 +3256,19 @@
       <c r="V38" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D39" t="n">
         <v>0.34</v>
@@ -3210,16 +3327,19 @@
       <c r="V39" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D40" t="n">
         <v>0.16</v>
@@ -3278,16 +3398,19 @@
       <c r="V40" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" t="n">
         <v>0.08</v>
@@ -3346,16 +3469,19 @@
       <c r="V41" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D42" t="n">
         <v>0.16</v>
@@ -3414,16 +3540,19 @@
       <c r="V42" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D43" t="n">
         <v>0.13</v>
@@ -3482,16 +3611,19 @@
       <c r="V43" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44" t="n">
         <v>0.2</v>
@@ -3550,16 +3682,19 @@
       <c r="V44" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D45" t="n">
         <v>0.33</v>
@@ -3618,10 +3753,13 @@
       <c r="V45" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3635,7 +3773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3643,7 +3781,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3707,13 +3845,16 @@
       <c r="U1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
         <v>2639</v>
@@ -3772,13 +3913,16 @@
       <c r="U2" t="n">
         <v>2186</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" t="n">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
         <v>453</v>
@@ -3837,13 +3981,16 @@
       <c r="U3" t="n">
         <v>261</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
         <v>632</v>
@@ -3902,13 +4049,16 @@
       <c r="U4" t="n">
         <v>525</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" t="n">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
         <v>1554</v>
@@ -3967,13 +4117,16 @@
       <c r="U5" t="n">
         <v>1400</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" t="n">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
         <v>1262</v>
@@ -4032,13 +4185,16 @@
       <c r="U6" t="n">
         <v>1038</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" t="n">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
         <v>259</v>
@@ -4097,13 +4253,16 @@
       <c r="U7" t="n">
         <v>195</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
         <v>765</v>
@@ -4162,13 +4321,16 @@
       <c r="U8" t="n">
         <v>637</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" t="n">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
       </c>
       <c r="C9" t="n">
         <v>353</v>
@@ -4227,13 +4389,16 @@
       <c r="U9" t="n">
         <v>316</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
         <v>1207</v>
@@ -4292,13 +4457,16 @@
       <c r="U10" t="n">
         <v>986</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" t="n">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n">
         <v>245</v>
@@ -4357,13 +4525,16 @@
       <c r="U11" t="n">
         <v>182</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="n">
         <v>135</v>
@@ -4422,13 +4593,16 @@
       <c r="U12" t="n">
         <v>141</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="n">
         <v>1052</v>
@@ -4487,13 +4661,16 @@
       <c r="U13" t="n">
         <v>877</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" t="n">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="n">
         <v>1191</v>
@@ -4552,13 +4729,16 @@
       <c r="U14" t="n">
         <v>1009</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="n">
         <v>926</v>
@@ -4617,13 +4797,16 @@
       <c r="U15" t="n">
         <v>744</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" t="n">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n">
         <v>522</v>
@@ -4682,13 +4865,16 @@
       <c r="U16" t="n">
         <v>433</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16" t="n">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="n">
         <v>448</v>
@@ -4747,13 +4933,16 @@
       <c r="U17" t="n">
         <v>313</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="n">
         <v>947</v>
@@ -4812,13 +5001,16 @@
       <c r="U18" t="n">
         <v>849</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" t="n">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="n">
         <v>623</v>
@@ -4877,13 +5069,16 @@
       <c r="U19" t="n">
         <v>685</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19" t="n">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="n">
         <v>184</v>
@@ -4942,13 +5137,16 @@
       <c r="U20" t="n">
         <v>203</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="n">
         <v>814</v>
@@ -5007,13 +5205,16 @@
       <c r="U21" t="n">
         <v>567</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21" t="n">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" t="n">
         <v>291</v>
@@ -5072,13 +5273,16 @@
       <c r="U22" t="n">
         <v>402</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="n">
         <v>408</v>
@@ -5137,10 +5341,13 @@
       <c r="U23" t="n">
         <v>230</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -5162,6 +5369,7 @@
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="s"/>
+      <c r="V24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_03_strategie_domacnosti.xlsx
+++ b/ZBP_03_strategie_domacnosti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>trideni</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>26. 1. 2021</t>
+  </si>
+  <si>
+    <t>16. 2. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -176,10 +179,10 @@
     <t>Velké obavy</t>
   </si>
   <si>
-    <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,7 +565,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,16 +635,19 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
         <v>0.52</v>
@@ -703,16 +709,19 @@
       <c r="W2" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
         <v>0.18</v>
@@ -774,16 +783,19 @@
       <c r="W3" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
         <v>0.68</v>
@@ -845,16 +857,19 @@
       <c r="W4" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
         <v>0.63</v>
@@ -916,16 +931,19 @@
       <c r="W5" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
         <v>0.42</v>
@@ -987,16 +1005,19 @@
       <c r="W6" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>0.55</v>
@@ -1058,16 +1079,19 @@
       <c r="W7" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
         <v>0.6</v>
@@ -1129,16 +1153,19 @@
       <c r="W8" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
         <v>0.4</v>
@@ -1200,16 +1227,19 @@
       <c r="W9" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
         <v>0.58</v>
@@ -1271,16 +1301,19 @@
       <c r="W10" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
         <v>0.55</v>
@@ -1342,16 +1375,19 @@
       <c r="W11" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
         <v>0.59</v>
@@ -1413,16 +1449,19 @@
       <c r="W12" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
         <v>0.57</v>
@@ -1484,16 +1523,19 @@
       <c r="W13" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>0.45</v>
@@ -1555,16 +1597,19 @@
       <c r="W14" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
         <v>0.51</v>
@@ -1626,16 +1671,19 @@
       <c r="W15" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
         <v>0.54</v>
@@ -1697,16 +1745,19 @@
       <c r="W16" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
         <v>0.47</v>
@@ -1768,16 +1819,19 @@
       <c r="W17" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
         <v>0.6</v>
@@ -1804,7 +1858,7 @@
         <v>0.31</v>
       </c>
       <c r="L18" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="M18" t="n">
         <v>0.31</v>
@@ -1834,24 +1888,27 @@
         <v>0.29</v>
       </c>
       <c r="V18" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="W18" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="E19" t="n">
         <v>0.49</v>
@@ -1905,24 +1962,27 @@
         <v>0.3</v>
       </c>
       <c r="V19" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="W19" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="E20" t="n">
         <v>0.39</v>
@@ -1934,10 +1994,10 @@
         <v>0.28</v>
       </c>
       <c r="H20" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="I20" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="J20" t="n">
         <v>0.15</v>
@@ -1952,22 +2012,22 @@
         <v>0.22</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="O20" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="P20" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="R20" t="n">
         <v>0.2</v>
       </c>
       <c r="S20" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="T20" t="n">
         <v>0.18</v>
@@ -1976,54 +2036,57 @@
         <v>0.18</v>
       </c>
       <c r="V20" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="W20" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="E21" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="F21" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="G21" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.2</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.18</v>
-      </c>
       <c r="I21" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.11</v>
       </c>
-      <c r="J21" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.1</v>
-      </c>
       <c r="L21" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="M21" t="n">
         <v>0.11</v>
       </c>
       <c r="N21" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="O21" t="n">
         <v>0.12</v>
@@ -2032,36 +2095,39 @@
         <v>0.16</v>
       </c>
       <c r="Q21" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S21" t="n">
         <v>0.11</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.12</v>
       </c>
       <c r="T21" t="n">
         <v>0.11</v>
       </c>
       <c r="U21" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="V21" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="X21" t="n">
         <v>0.15</v>
       </c>
-      <c r="W21" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="n">
         <v>0.45</v>
@@ -2123,16 +2189,19 @@
       <c r="W22" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
         <v>0.58</v>
@@ -2194,16 +2263,19 @@
       <c r="W23" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="n">
         <v>0.76</v>
@@ -2265,16 +2337,19 @@
       <c r="W24" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
         <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
       </c>
       <c r="D25" t="n">
         <v>0.47</v>
@@ -2336,16 +2411,19 @@
       <c r="W25" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
         <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
       </c>
       <c r="D26" t="n">
         <v>0.19</v>
@@ -2407,16 +2485,19 @@
       <c r="W26" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
         <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
       </c>
       <c r="D27" t="n">
         <v>0.09</v>
@@ -2478,16 +2559,19 @@
       <c r="W27" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="n">
         <v>0.18</v>
@@ -2549,16 +2633,19 @@
       <c r="W28" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
         <v>0.29</v>
@@ -2620,16 +2707,19 @@
       <c r="W29" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="n">
         <v>0.11</v>
@@ -2691,16 +2781,19 @@
       <c r="W30" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" t="n">
         <v>0.21</v>
@@ -2762,16 +2855,19 @@
       <c r="W31" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" t="n">
         <v>0.18</v>
@@ -2833,16 +2929,19 @@
       <c r="W32" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" t="n">
         <v>0.29</v>
@@ -2904,16 +3003,19 @@
       <c r="W33" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34" t="n">
         <v>0.22</v>
@@ -2975,16 +3077,19 @@
       <c r="W34" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" t="n">
         <v>0.14</v>
@@ -3046,16 +3151,19 @@
       <c r="W35" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" t="n">
         <v>0.21</v>
@@ -3117,16 +3225,19 @@
       <c r="W36" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" t="n">
         <v>0.16</v>
@@ -3188,16 +3299,19 @@
       <c r="W37" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" t="n">
         <v>0.11</v>
@@ -3259,16 +3373,19 @@
       <c r="W38" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" t="n">
         <v>0.34</v>
@@ -3325,21 +3442,24 @@
         <v>0.26</v>
       </c>
       <c r="V39" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="W39" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40" t="n">
         <v>0.16</v>
@@ -3351,7 +3471,7 @@
         <v>0.15</v>
       </c>
       <c r="G40" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H40" t="n">
         <v>0.14</v>
@@ -3372,7 +3492,7 @@
         <v>0.11</v>
       </c>
       <c r="N40" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="O40" t="n">
         <v>0.15</v>
@@ -3401,19 +3521,22 @@
       <c r="W40" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E41" t="n">
         <v>0.06</v>
@@ -3425,16 +3548,16 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I41" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J41" t="n">
         <v>0.08</v>
       </c>
       <c r="K41" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="L41" t="n">
         <v>0.07000000000000001</v>
@@ -3443,7 +3566,7 @@
         <v>0.1</v>
       </c>
       <c r="N41" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="O41" t="n">
         <v>0.09</v>
@@ -3461,7 +3584,7 @@
         <v>0.09</v>
       </c>
       <c r="T41" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U41" t="n">
         <v>0.06</v>
@@ -3470,30 +3593,33 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="W41" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+        <v>0.06</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E42" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0.03</v>
@@ -3505,16 +3631,16 @@
         <v>0.04</v>
       </c>
       <c r="K42" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="L42" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="M42" t="n">
         <v>0.03</v>
       </c>
       <c r="N42" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O42" t="n">
         <v>0.06</v>
@@ -3523,36 +3649,39 @@
         <v>0.06</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R42" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S42" t="n">
         <v>0.06</v>
       </c>
       <c r="T42" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="U42" t="n">
         <v>0.06</v>
       </c>
       <c r="V42" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="W42" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" t="n">
         <v>0.13</v>
@@ -3614,16 +3743,19 @@
       <c r="W43" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" t="n">
         <v>0.2</v>
@@ -3685,16 +3817,19 @@
       <c r="W44" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" t="n">
         <v>0.33</v>
@@ -3756,10 +3891,13 @@
       <c r="W45" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3773,7 +3911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3781,7 +3919,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3848,13 +3986,16 @@
       <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
         <v>2639</v>
@@ -3916,13 +4057,16 @@
       <c r="V2" t="n">
         <v>2131</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="n">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
         <v>453</v>
@@ -3984,13 +4128,16 @@
       <c r="V3" t="n">
         <v>237</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
         <v>632</v>
@@ -4052,13 +4199,16 @@
       <c r="V4" t="n">
         <v>491</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" t="n">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
         <v>1554</v>
@@ -4120,13 +4270,16 @@
       <c r="V5" t="n">
         <v>1403</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" t="n">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
         <v>1262</v>
@@ -4188,13 +4341,16 @@
       <c r="V6" t="n">
         <v>1013</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" t="n">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
         <v>259</v>
@@ -4256,13 +4412,16 @@
       <c r="V7" t="n">
         <v>190</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
         <v>765</v>
@@ -4324,13 +4483,16 @@
       <c r="V8" t="n">
         <v>621</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
       </c>
       <c r="C9" t="n">
         <v>353</v>
@@ -4392,13 +4554,16 @@
       <c r="V9" t="n">
         <v>307</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
         <v>1207</v>
@@ -4460,13 +4625,16 @@
       <c r="V10" t="n">
         <v>966</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="n">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
         <v>245</v>
@@ -4528,13 +4696,16 @@
       <c r="V11" t="n">
         <v>176</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
         <v>135</v>
@@ -4596,13 +4767,16 @@
       <c r="V12" t="n">
         <v>132</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
         <v>1052</v>
@@ -4664,13 +4838,16 @@
       <c r="V13" t="n">
         <v>857</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="n">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="n">
         <v>1191</v>
@@ -4732,13 +4909,16 @@
       <c r="V14" t="n">
         <v>984</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" t="n">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="n">
         <v>926</v>
@@ -4800,13 +4980,16 @@
       <c r="V15" t="n">
         <v>726</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" t="n">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="n">
         <v>522</v>
@@ -4868,13 +5051,16 @@
       <c r="V16" t="n">
         <v>421</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" t="n">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="n">
         <v>448</v>
@@ -4898,10 +5084,10 @@
         <v>370</v>
       </c>
       <c r="J17" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K17" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L17" t="n">
         <v>304</v>
@@ -4919,10 +5105,10 @@
         <v>319</v>
       </c>
       <c r="Q17" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="R17" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S17" t="n">
         <v>273</v>
@@ -4931,222 +5117,234 @@
         <v>250</v>
       </c>
       <c r="U17" t="n">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="V17" t="n">
         <v>272</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>947</v>
+        <v>920</v>
       </c>
       <c r="D18" t="n">
-        <v>1006</v>
+        <v>975</v>
       </c>
       <c r="E18" t="n">
-        <v>1045</v>
+        <v>1016</v>
       </c>
       <c r="F18" t="n">
-        <v>949</v>
+        <v>919</v>
       </c>
       <c r="G18" t="n">
-        <v>978</v>
+        <v>954</v>
       </c>
       <c r="H18" t="n">
-        <v>971</v>
+        <v>943</v>
       </c>
       <c r="I18" t="n">
-        <v>908</v>
+        <v>884</v>
       </c>
       <c r="J18" t="n">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="K18" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L18" t="n">
-        <v>868</v>
+        <v>843</v>
       </c>
       <c r="M18" t="n">
+        <v>860</v>
+      </c>
+      <c r="N18" t="n">
+        <v>842</v>
+      </c>
+      <c r="O18" t="n">
+        <v>871</v>
+      </c>
+      <c r="P18" t="n">
+        <v>884</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>857</v>
+      </c>
+      <c r="R18" t="n">
         <v>881</v>
       </c>
-      <c r="N18" t="n">
-        <v>863</v>
-      </c>
-      <c r="O18" t="n">
-        <v>890</v>
-      </c>
-      <c r="P18" t="n">
-        <v>911</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>881</v>
-      </c>
-      <c r="R18" t="n">
-        <v>902</v>
-      </c>
       <c r="S18" t="n">
-        <v>860</v>
+        <v>836</v>
       </c>
       <c r="T18" t="n">
-        <v>820</v>
+        <v>793</v>
       </c>
       <c r="U18" t="n">
-        <v>849</v>
+        <v>810</v>
       </c>
       <c r="V18" t="n">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>806</v>
+      </c>
+      <c r="W18" t="n">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="n">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="D19" t="n">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="E19" t="n">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="F19" t="n">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="G19" t="n">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H19" t="n">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="I19" t="n">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="J19" t="n">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="K19" t="n">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="L19" t="n">
+        <v>698</v>
+      </c>
+      <c r="M19" t="n">
+        <v>664</v>
+      </c>
+      <c r="N19" t="n">
+        <v>672</v>
+      </c>
+      <c r="O19" t="n">
+        <v>681</v>
+      </c>
+      <c r="P19" t="n">
+        <v>694</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>675</v>
+      </c>
+      <c r="R19" t="n">
         <v>693</v>
       </c>
-      <c r="M19" t="n">
-        <v>670</v>
-      </c>
-      <c r="N19" t="n">
-        <v>664</v>
-      </c>
-      <c r="O19" t="n">
-        <v>687</v>
-      </c>
-      <c r="P19" t="n">
-        <v>690</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>676</v>
-      </c>
-      <c r="R19" t="n">
-        <v>696</v>
-      </c>
       <c r="S19" t="n">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="T19" t="n">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="U19" t="n">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="V19" t="n">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <v>671</v>
+      </c>
+      <c r="W19" t="n">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="n">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D20" t="n">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="E20" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="F20" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="G20" t="n">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="H20" t="n">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="I20" t="n">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="J20" t="n">
+        <v>225</v>
+      </c>
+      <c r="K20" t="n">
+        <v>226</v>
+      </c>
+      <c r="L20" t="n">
+        <v>234</v>
+      </c>
+      <c r="M20" t="n">
+        <v>243</v>
+      </c>
+      <c r="N20" t="n">
         <v>206</v>
       </c>
-      <c r="K20" t="n">
-        <v>204</v>
-      </c>
-      <c r="L20" t="n">
-        <v>214</v>
-      </c>
-      <c r="M20" t="n">
-        <v>216</v>
-      </c>
-      <c r="N20" t="n">
-        <v>193</v>
-      </c>
       <c r="O20" t="n">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="P20" t="n">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="Q20" t="n">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="R20" t="n">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="S20" t="n">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="T20" t="n">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="U20" t="n">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="V20" t="n">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <v>230</v>
+      </c>
+      <c r="W20" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" t="n">
         <v>814</v>
@@ -5208,13 +5406,16 @@
       <c r="V21" t="n">
         <v>526</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" t="n">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="n">
         <v>291</v>
@@ -5276,13 +5477,16 @@
       <c r="V22" t="n">
         <v>385</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="n">
         <v>408</v>
@@ -5344,10 +5548,13 @@
       <c r="V23" t="n">
         <v>242</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -5370,6 +5577,7 @@
       <c r="T24" t="s"/>
       <c r="U24" t="s"/>
       <c r="V24" t="s"/>
+      <c r="W24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_03_strategie_domacnosti.xlsx
+++ b/ZBP_03_strategie_domacnosti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>trideni</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>16. 2. 2021</t>
+  </si>
+  <si>
+    <t>2. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -179,10 +182,10 @@
     <t>Velké obavy</t>
   </si>
   <si>
-    <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,16 +641,19 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>0.52</v>
@@ -712,16 +718,19 @@
       <c r="X2" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>0.18</v>
@@ -786,16 +795,19 @@
       <c r="X3" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
         <v>0.68</v>
@@ -860,16 +872,19 @@
       <c r="X4" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
         <v>0.63</v>
@@ -934,16 +949,19 @@
       <c r="X5" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
         <v>0.42</v>
@@ -1008,16 +1026,19 @@
       <c r="X6" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>0.55</v>
@@ -1082,16 +1103,19 @@
       <c r="X7" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>0.6</v>
@@ -1156,16 +1180,19 @@
       <c r="X8" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
         <v>0.4</v>
@@ -1230,16 +1257,19 @@
       <c r="X9" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
         <v>0.58</v>
@@ -1304,16 +1334,19 @@
       <c r="X10" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
         <v>0.55</v>
@@ -1378,16 +1411,19 @@
       <c r="X11" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
         <v>0.59</v>
@@ -1452,16 +1488,19 @@
       <c r="X12" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
         <v>0.57</v>
@@ -1526,16 +1565,19 @@
       <c r="X13" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
         <v>0.45</v>
@@ -1600,16 +1642,19 @@
       <c r="X14" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
         <v>0.51</v>
@@ -1674,16 +1719,19 @@
       <c r="X15" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
         <v>0.54</v>
@@ -1748,16 +1796,19 @@
       <c r="X16" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
         <v>0.47</v>
@@ -1822,16 +1873,19 @@
       <c r="X17" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
         <v>0.6</v>
@@ -1894,18 +1948,21 @@
         <v>0.33</v>
       </c>
       <c r="X18" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <v>0.29</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
         <v>0.51</v>
@@ -1962,7 +2019,7 @@
         <v>0.3</v>
       </c>
       <c r="V19" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="W19" t="n">
         <v>0.27</v>
@@ -1970,16 +2027,19 @@
       <c r="X19" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
         <v>0.46</v>
@@ -2036,7 +2096,7 @@
         <v>0.18</v>
       </c>
       <c r="V20" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="W20" t="n">
         <v>0.17</v>
@@ -2044,16 +2104,19 @@
       <c r="X20" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
         <v>0.41</v>
@@ -2118,16 +2181,19 @@
       <c r="X21" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
         <v>0.45</v>
@@ -2192,16 +2258,19 @@
       <c r="X22" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
         <v>0.58</v>
@@ -2266,16 +2335,19 @@
       <c r="X23" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
         <v>0.76</v>
@@ -2340,16 +2412,19 @@
       <c r="X24" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
         <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
       </c>
       <c r="D25" t="n">
         <v>0.47</v>
@@ -2414,16 +2489,19 @@
       <c r="X25" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
         <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
       </c>
       <c r="D26" t="n">
         <v>0.19</v>
@@ -2488,16 +2566,19 @@
       <c r="X26" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
         <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
       </c>
       <c r="D27" t="n">
         <v>0.09</v>
@@ -2562,16 +2643,19 @@
       <c r="X27" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
         <v>0.18</v>
@@ -2636,16 +2720,19 @@
       <c r="X28" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="n">
         <v>0.29</v>
@@ -2710,16 +2797,19 @@
       <c r="X29" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="Y29" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
         <v>0.11</v>
@@ -2784,16 +2874,19 @@
       <c r="X30" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Y30" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" t="n">
         <v>0.21</v>
@@ -2858,16 +2951,19 @@
       <c r="X31" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="Y31" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="n">
         <v>0.18</v>
@@ -2932,16 +3028,19 @@
       <c r="X32" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="Y32" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" t="n">
         <v>0.29</v>
@@ -3006,16 +3105,19 @@
       <c r="X33" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Y33" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" t="n">
         <v>0.22</v>
@@ -3080,16 +3182,19 @@
       <c r="X34" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="Y34" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
         <v>0.14</v>
@@ -3154,16 +3259,19 @@
       <c r="X35" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="Y35" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" t="n">
         <v>0.21</v>
@@ -3228,16 +3336,19 @@
       <c r="X36" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="Y36" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
         <v>0.16</v>
@@ -3302,16 +3413,19 @@
       <c r="X37" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Y37" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
         <v>0.11</v>
@@ -3376,16 +3490,19 @@
       <c r="X38" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="Y38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" t="n">
         <v>0.34</v>
@@ -3442,24 +3559,27 @@
         <v>0.26</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="W39" t="n">
         <v>0.26</v>
       </c>
       <c r="X39" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+        <v>0.29</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
         <v>0.16</v>
@@ -3524,16 +3644,19 @@
       <c r="X40" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="Y40" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" t="n">
         <v>0.09</v>
@@ -3590,24 +3713,27 @@
         <v>0.06</v>
       </c>
       <c r="V41" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X41" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="W41" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="Y41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" t="n">
         <v>0.15</v>
@@ -3672,16 +3798,19 @@
       <c r="X42" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="Y42" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" t="n">
         <v>0.13</v>
@@ -3746,16 +3875,19 @@
       <c r="X43" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="Y43" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
         <v>0.2</v>
@@ -3820,16 +3952,19 @@
       <c r="X44" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="Y44" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" t="n">
         <v>0.33</v>
@@ -3894,10 +4029,13 @@
       <c r="X45" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="Y45" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3911,7 +4049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3919,7 +4057,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3989,13 +4127,16 @@
       <c r="W1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
         <v>2639</v>
@@ -4060,13 +4201,16 @@
       <c r="W2" t="n">
         <v>2120</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
         <v>453</v>
@@ -4131,13 +4275,16 @@
       <c r="W3" t="n">
         <v>239</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
         <v>632</v>
@@ -4202,13 +4349,16 @@
       <c r="W4" t="n">
         <v>465</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
         <v>1554</v>
@@ -4273,13 +4423,16 @@
       <c r="W5" t="n">
         <v>1416</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
         <v>1262</v>
@@ -4344,13 +4497,16 @@
       <c r="W6" t="n">
         <v>1007</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
         <v>259</v>
@@ -4415,13 +4571,16 @@
       <c r="W7" t="n">
         <v>189</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
         <v>765</v>
@@ -4486,13 +4645,16 @@
       <c r="W8" t="n">
         <v>608</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
       </c>
       <c r="C9" t="n">
         <v>353</v>
@@ -4557,13 +4719,16 @@
       <c r="W9" t="n">
         <v>316</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
         <v>1207</v>
@@ -4628,13 +4793,16 @@
       <c r="W10" t="n">
         <v>961</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
         <v>245</v>
@@ -4699,13 +4867,16 @@
       <c r="W11" t="n">
         <v>177</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
         <v>135</v>
@@ -4770,13 +4941,16 @@
       <c r="W12" t="n">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
         <v>1052</v>
@@ -4841,13 +5015,16 @@
       <c r="W13" t="n">
         <v>848</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="n">
         <v>1191</v>
@@ -4912,13 +5089,16 @@
       <c r="W14" t="n">
         <v>981</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="n">
         <v>926</v>
@@ -4983,13 +5163,16 @@
       <c r="W15" t="n">
         <v>724</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="n">
         <v>522</v>
@@ -5054,13 +5237,16 @@
       <c r="W16" t="n">
         <v>415</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
         <v>448</v>
@@ -5117,21 +5303,24 @@
         <v>250</v>
       </c>
       <c r="U17" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="V17" t="n">
         <v>272</v>
       </c>
       <c r="W17" t="n">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+        <v>279</v>
+      </c>
+      <c r="X17" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="n">
         <v>920</v>
@@ -5188,21 +5377,24 @@
         <v>793</v>
       </c>
       <c r="U18" t="n">
-        <v>810</v>
+        <v>849</v>
       </c>
       <c r="V18" t="n">
-        <v>806</v>
+        <v>829</v>
       </c>
       <c r="W18" t="n">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+        <v>821</v>
+      </c>
+      <c r="X18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="n">
         <v>632</v>
@@ -5259,21 +5451,24 @@
         <v>635</v>
       </c>
       <c r="U19" t="n">
-        <v>694</v>
+        <v>651</v>
       </c>
       <c r="V19" t="n">
-        <v>671</v>
+        <v>648</v>
       </c>
       <c r="W19" t="n">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+        <v>626</v>
+      </c>
+      <c r="X19" t="n">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="n">
         <v>202</v>
@@ -5330,21 +5525,24 @@
         <v>234</v>
       </c>
       <c r="U20" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="V20" t="n">
         <v>230</v>
       </c>
       <c r="W20" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+        <v>251</v>
+      </c>
+      <c r="X20" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" t="n">
         <v>814</v>
@@ -5409,13 +5607,16 @@
       <c r="W21" t="n">
         <v>548</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="n">
         <v>291</v>
@@ -5480,13 +5681,16 @@
       <c r="W22" t="n">
         <v>401</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="n">
         <v>408</v>
@@ -5551,10 +5755,13 @@
       <c r="W23" t="n">
         <v>203</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -5578,6 +5785,7 @@
       <c r="U24" t="s"/>
       <c r="V24" t="s"/>
       <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_03_strategie_domacnosti.xlsx
+++ b/ZBP_03_strategie_domacnosti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>trideni</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>2. 3. 2021</t>
+  </si>
+  <si>
+    <t>16. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -182,10 +185,10 @@
     <t>Velké obavy</t>
   </si>
   <si>
-    <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y46"/>
+  <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +571,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,16 +647,19 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
         <v>0.52</v>
@@ -721,16 +727,19 @@
       <c r="Y2" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>0.18</v>
@@ -798,16 +807,19 @@
       <c r="Y3" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>0.68</v>
@@ -875,16 +887,19 @@
       <c r="Y4" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
         <v>0.63</v>
@@ -952,16 +967,19 @@
       <c r="Y5" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
         <v>0.42</v>
@@ -1029,16 +1047,19 @@
       <c r="Y6" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
         <v>0.55</v>
@@ -1106,16 +1127,19 @@
       <c r="Y7" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
         <v>0.6</v>
@@ -1183,16 +1207,19 @@
       <c r="Y8" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>0.4</v>
@@ -1260,16 +1287,19 @@
       <c r="Y9" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
         <v>0.58</v>
@@ -1337,16 +1367,19 @@
       <c r="Y10" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
         <v>0.55</v>
@@ -1414,16 +1447,19 @@
       <c r="Y11" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
         <v>0.59</v>
@@ -1491,16 +1527,19 @@
       <c r="Y12" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
         <v>0.57</v>
@@ -1568,16 +1607,19 @@
       <c r="Y13" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
         <v>0.45</v>
@@ -1645,16 +1687,19 @@
       <c r="Y14" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
         <v>0.51</v>
@@ -1722,16 +1767,19 @@
       <c r="Y15" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
         <v>0.54</v>
@@ -1799,16 +1847,19 @@
       <c r="Y16" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
         <v>0.47</v>
@@ -1876,16 +1927,19 @@
       <c r="Y17" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
         <v>0.6</v>
@@ -1953,16 +2007,19 @@
       <c r="Y18" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
         <v>0.51</v>
@@ -2030,16 +2087,19 @@
       <c r="Y19" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
         <v>0.46</v>
@@ -2107,16 +2167,19 @@
       <c r="Y20" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
         <v>0.41</v>
@@ -2184,16 +2247,19 @@
       <c r="Y21" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
         <v>0.45</v>
@@ -2261,16 +2327,19 @@
       <c r="Y22" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
         <v>0.58</v>
@@ -2338,16 +2407,19 @@
       <c r="Y23" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
         <v>0.76</v>
@@ -2415,16 +2487,19 @@
       <c r="Y24" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
         <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
       </c>
       <c r="D25" t="n">
         <v>0.47</v>
@@ -2492,16 +2567,19 @@
       <c r="Y25" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
         <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
       </c>
       <c r="D26" t="n">
         <v>0.19</v>
@@ -2569,16 +2647,19 @@
       <c r="Y26" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
         <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
       </c>
       <c r="D27" t="n">
         <v>0.09</v>
@@ -2646,16 +2727,19 @@
       <c r="Y27" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" t="n">
         <v>0.18</v>
@@ -2723,16 +2807,19 @@
       <c r="Y28" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="n">
         <v>0.29</v>
@@ -2800,16 +2887,19 @@
       <c r="Y29" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" t="n">
         <v>0.11</v>
@@ -2877,16 +2967,19 @@
       <c r="Y30" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" t="n">
         <v>0.21</v>
@@ -2954,16 +3047,19 @@
       <c r="Y31" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" t="n">
         <v>0.18</v>
@@ -3031,16 +3127,19 @@
       <c r="Y32" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" t="n">
         <v>0.29</v>
@@ -3108,16 +3207,19 @@
       <c r="Y33" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" t="n">
         <v>0.22</v>
@@ -3185,16 +3287,19 @@
       <c r="Y34" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" t="n">
         <v>0.14</v>
@@ -3262,16 +3367,19 @@
       <c r="Y35" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" t="n">
         <v>0.21</v>
@@ -3339,16 +3447,19 @@
       <c r="Y36" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
         <v>0.16</v>
@@ -3416,16 +3527,19 @@
       <c r="Y37" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" t="n">
         <v>0.11</v>
@@ -3493,16 +3607,19 @@
       <c r="Y38" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39" t="n">
         <v>0.34</v>
@@ -3570,16 +3687,19 @@
       <c r="Y39" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" t="n">
         <v>0.16</v>
@@ -3647,16 +3767,19 @@
       <c r="Y40" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" t="n">
         <v>0.09</v>
@@ -3724,16 +3847,19 @@
       <c r="Y41" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" t="n">
         <v>0.15</v>
@@ -3801,16 +3927,19 @@
       <c r="Y42" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" t="n">
         <v>0.13</v>
@@ -3878,16 +4007,19 @@
       <c r="Y43" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" t="n">
         <v>0.2</v>
@@ -3955,16 +4087,19 @@
       <c r="Y44" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" t="n">
         <v>0.33</v>
@@ -4032,10 +4167,13 @@
       <c r="Y45" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4049,7 +4187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4057,7 +4195,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4130,13 +4268,16 @@
       <c r="X1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>2639</v>
@@ -4204,13 +4345,16 @@
       <c r="X2" t="n">
         <v>2130</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
         <v>453</v>
@@ -4278,13 +4422,16 @@
       <c r="X3" t="n">
         <v>260</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>632</v>
@@ -4352,13 +4499,16 @@
       <c r="X4" t="n">
         <v>473</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
         <v>1554</v>
@@ -4426,13 +4576,16 @@
       <c r="X5" t="n">
         <v>1397</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
         <v>1262</v>
@@ -4500,13 +4653,16 @@
       <c r="X6" t="n">
         <v>1012</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
         <v>259</v>
@@ -4574,13 +4730,16 @@
       <c r="X7" t="n">
         <v>190</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
         <v>765</v>
@@ -4648,13 +4807,16 @@
       <c r="X8" t="n">
         <v>614</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
       </c>
       <c r="C9" t="n">
         <v>353</v>
@@ -4722,13 +4884,16 @@
       <c r="X9" t="n">
         <v>314</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
         <v>1207</v>
@@ -4796,13 +4961,16 @@
       <c r="X10" t="n">
         <v>965</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
         <v>245</v>
@@ -4870,13 +5038,16 @@
       <c r="X11" t="n">
         <v>176</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="n">
         <v>135</v>
@@ -4944,13 +5115,16 @@
       <c r="X12" t="n">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="n">
         <v>1052</v>
@@ -5018,13 +5192,16 @@
       <c r="X13" t="n">
         <v>855</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="n">
         <v>1191</v>
@@ -5092,13 +5269,16 @@
       <c r="X14" t="n">
         <v>993</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="n">
         <v>926</v>
@@ -5166,13 +5346,16 @@
       <c r="X15" t="n">
         <v>720</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="n">
         <v>522</v>
@@ -5240,13 +5423,16 @@
       <c r="X16" t="n">
         <v>417</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="n">
         <v>448</v>
@@ -5314,13 +5500,16 @@
       <c r="X17" t="n">
         <v>283</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="n">
         <v>920</v>
@@ -5388,13 +5577,16 @@
       <c r="X18" t="n">
         <v>824</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="n">
         <v>632</v>
@@ -5462,13 +5654,16 @@
       <c r="X19" t="n">
         <v>623</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="n">
         <v>202</v>
@@ -5536,13 +5731,16 @@
       <c r="X20" t="n">
         <v>269</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="n">
         <v>814</v>
@@ -5610,13 +5808,16 @@
       <c r="X21" t="n">
         <v>529</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="n">
         <v>291</v>
@@ -5684,13 +5885,16 @@
       <c r="X22" t="n">
         <v>398</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="n">
         <v>408</v>
@@ -5758,10 +5962,13 @@
       <c r="X23" t="n">
         <v>229</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -5786,6 +5993,7 @@
       <c r="V24" t="s"/>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_03_strategie_domacnosti.xlsx
+++ b/ZBP_03_strategie_domacnosti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>trideni</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>16. 3. 2021</t>
+  </si>
+  <si>
+    <t>30. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -185,10 +188,10 @@
     <t>Velké obavy</t>
   </si>
   <si>
-    <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z46"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +574,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,16 +653,19 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
         <v>0.52</v>
@@ -730,16 +736,19 @@
       <c r="Z2" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>0.18</v>
@@ -810,16 +819,19 @@
       <c r="Z3" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>0.68</v>
@@ -890,16 +902,19 @@
       <c r="Z4" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>0.63</v>
@@ -970,16 +985,19 @@
       <c r="Z5" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
         <v>0.42</v>
@@ -1050,16 +1068,19 @@
       <c r="Z6" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
         <v>0.55</v>
@@ -1130,16 +1151,19 @@
       <c r="Z7" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>0.6</v>
@@ -1210,16 +1234,19 @@
       <c r="Z8" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>0.4</v>
@@ -1290,16 +1317,19 @@
       <c r="Z9" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
         <v>0.58</v>
@@ -1370,16 +1400,19 @@
       <c r="Z10" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
         <v>0.55</v>
@@ -1450,16 +1483,19 @@
       <c r="Z11" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
         <v>0.59</v>
@@ -1530,16 +1566,19 @@
       <c r="Z12" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
         <v>0.57</v>
@@ -1610,16 +1649,19 @@
       <c r="Z13" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
         <v>0.45</v>
@@ -1690,16 +1732,19 @@
       <c r="Z14" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
         <v>0.51</v>
@@ -1770,16 +1815,19 @@
       <c r="Z15" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
         <v>0.54</v>
@@ -1850,16 +1898,19 @@
       <c r="Z16" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
         <v>0.47</v>
@@ -1930,16 +1981,19 @@
       <c r="Z17" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
         <v>0.6</v>
@@ -2010,16 +2064,19 @@
       <c r="Z18" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
         <v>0.51</v>
@@ -2090,16 +2147,19 @@
       <c r="Z19" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
         <v>0.46</v>
@@ -2170,16 +2230,19 @@
       <c r="Z20" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
         <v>0.41</v>
@@ -2250,16 +2313,19 @@
       <c r="Z21" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
         <v>0.45</v>
@@ -2330,16 +2396,19 @@
       <c r="Z22" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
         <v>0.58</v>
@@ -2410,16 +2479,19 @@
       <c r="Z23" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
         <v>0.76</v>
@@ -2490,16 +2562,19 @@
       <c r="Z24" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
         <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
       </c>
       <c r="D25" t="n">
         <v>0.47</v>
@@ -2570,16 +2645,19 @@
       <c r="Z25" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
         <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
       </c>
       <c r="D26" t="n">
         <v>0.19</v>
@@ -2650,16 +2728,19 @@
       <c r="Z26" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
         <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
       </c>
       <c r="D27" t="n">
         <v>0.09</v>
@@ -2730,16 +2811,19 @@
       <c r="Z27" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
         <v>0.18</v>
@@ -2810,16 +2894,19 @@
       <c r="Z28" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
         <v>0.29</v>
@@ -2890,16 +2977,19 @@
       <c r="Z29" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
         <v>0.11</v>
@@ -2970,16 +3060,19 @@
       <c r="Z30" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
         <v>0.21</v>
@@ -3050,16 +3143,19 @@
       <c r="Z31" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
         <v>0.18</v>
@@ -3130,16 +3226,19 @@
       <c r="Z32" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
         <v>0.29</v>
@@ -3210,16 +3309,19 @@
       <c r="Z33" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
         <v>0.22</v>
@@ -3290,16 +3392,19 @@
       <c r="Z34" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
         <v>0.14</v>
@@ -3370,16 +3475,19 @@
       <c r="Z35" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
         <v>0.21</v>
@@ -3450,16 +3558,19 @@
       <c r="Z36" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
         <v>0.16</v>
@@ -3530,16 +3641,19 @@
       <c r="Z37" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
         <v>0.11</v>
@@ -3610,16 +3724,19 @@
       <c r="Z38" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
         <v>0.34</v>
@@ -3690,16 +3807,19 @@
       <c r="Z39" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
         <v>0.16</v>
@@ -3770,16 +3890,19 @@
       <c r="Z40" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
         <v>0.09</v>
@@ -3850,16 +3973,19 @@
       <c r="Z41" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AA41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
         <v>0.15</v>
@@ -3930,16 +4056,19 @@
       <c r="Z42" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
         <v>0.13</v>
@@ -4010,16 +4139,19 @@
       <c r="Z43" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
         <v>0.2</v>
@@ -4090,16 +4222,19 @@
       <c r="Z44" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AA44" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
         <v>0.33</v>
@@ -4170,10 +4305,13 @@
       <c r="Z45" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="AA45" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4187,7 +4325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4195,7 +4333,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4271,13 +4409,16 @@
       <c r="Y1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>2639</v>
@@ -4348,13 +4489,16 @@
       <c r="Y2" t="n">
         <v>2101</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
         <v>453</v>
@@ -4425,13 +4569,16 @@
       <c r="Y3" t="n">
         <v>244</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
         <v>632</v>
@@ -4502,13 +4649,16 @@
       <c r="Y4" t="n">
         <v>478</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
         <v>1554</v>
@@ -4579,13 +4729,16 @@
       <c r="Y5" t="n">
         <v>1379</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
         <v>1262</v>
@@ -4656,13 +4809,16 @@
       <c r="Y6" t="n">
         <v>1001</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
         <v>259</v>
@@ -4733,13 +4889,16 @@
       <c r="Y7" t="n">
         <v>187</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
         <v>765</v>
@@ -4810,13 +4969,16 @@
       <c r="Y8" t="n">
         <v>601</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
       </c>
       <c r="C9" t="n">
         <v>353</v>
@@ -4887,13 +5049,16 @@
       <c r="Y9" t="n">
         <v>312</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
         <v>1207</v>
@@ -4964,13 +5129,16 @@
       <c r="Y10" t="n">
         <v>957</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
         <v>245</v>
@@ -5041,13 +5209,16 @@
       <c r="Y11" t="n">
         <v>174</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="n">
         <v>135</v>
@@ -5118,13 +5289,16 @@
       <c r="Y12" t="n">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="n">
         <v>1052</v>
@@ -5195,13 +5369,16 @@
       <c r="Y13" t="n">
         <v>837</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="n">
         <v>1191</v>
@@ -5272,13 +5449,16 @@
       <c r="Y14" t="n">
         <v>966</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="n">
         <v>926</v>
@@ -5349,13 +5529,16 @@
       <c r="Y15" t="n">
         <v>721</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
         <v>522</v>
@@ -5426,13 +5609,16 @@
       <c r="Y16" t="n">
         <v>414</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="n">
         <v>448</v>
@@ -5503,13 +5689,16 @@
       <c r="Y17" t="n">
         <v>257</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="n">
         <v>920</v>
@@ -5580,13 +5769,16 @@
       <c r="Y18" t="n">
         <v>816</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="n">
         <v>632</v>
@@ -5657,13 +5849,16 @@
       <c r="Y19" t="n">
         <v>615</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="n">
         <v>202</v>
@@ -5734,13 +5929,16 @@
       <c r="Y20" t="n">
         <v>272</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="n">
         <v>814</v>
@@ -5811,13 +6009,16 @@
       <c r="Y21" t="n">
         <v>526</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" t="n">
         <v>291</v>
@@ -5888,13 +6089,16 @@
       <c r="Y22" t="n">
         <v>399</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="n">
         <v>408</v>
@@ -5965,10 +6169,13 @@
       <c r="Y23" t="n">
         <v>235</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -5994,6 +6201,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s"/>
+      <c r="Z24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_03_strategie_domacnosti.xlsx
+++ b/ZBP_03_strategie_domacnosti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>trideni</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>30. 3. 2021</t>
+  </si>
+  <si>
+    <t>13. 4. 2021</t>
+  </si>
+  <si>
+    <t>4. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -188,10 +194,10 @@
     <t>Velké obavy</t>
   </si>
   <si>
-    <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
 </sst>
 </file>
@@ -566,7 +572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA46"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +580,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,16 +662,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
         <v>0.52</v>
@@ -739,16 +751,22 @@
       <c r="AA2" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
         <v>0.18</v>
@@ -822,16 +840,22 @@
       <c r="AA3" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>0.68</v>
@@ -905,16 +929,22 @@
       <c r="AA4" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>0.63</v>
@@ -988,16 +1018,22 @@
       <c r="AA5" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
       </c>
       <c r="D6" t="n">
         <v>0.42</v>
@@ -1071,16 +1107,22 @@
       <c r="AA6" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>0.55</v>
@@ -1154,16 +1196,22 @@
       <c r="AA7" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
         <v>0.6</v>
@@ -1237,16 +1285,22 @@
       <c r="AA8" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>0.4</v>
@@ -1320,16 +1374,22 @@
       <c r="AA9" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
         <v>0.58</v>
@@ -1403,16 +1463,22 @@
       <c r="AA10" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" t="n">
         <v>0.55</v>
@@ -1486,16 +1552,22 @@
       <c r="AA11" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
         <v>0.59</v>
@@ -1569,16 +1641,22 @@
       <c r="AA12" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" t="n">
         <v>0.57</v>
@@ -1652,16 +1730,22 @@
       <c r="AA13" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14" t="n">
         <v>0.45</v>
@@ -1735,16 +1819,22 @@
       <c r="AA14" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
         <v>0.51</v>
@@ -1818,16 +1908,22 @@
       <c r="AA15" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
         <v>0.54</v>
@@ -1901,16 +1997,22 @@
       <c r="AA16" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D17" t="n">
         <v>0.47</v>
@@ -1984,16 +2086,22 @@
       <c r="AA17" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
         <v>0.6</v>
@@ -2067,16 +2175,22 @@
       <c r="AA18" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
         <v>0.51</v>
@@ -2150,16 +2264,22 @@
       <c r="AA19" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
         <v>0.46</v>
@@ -2233,16 +2353,22 @@
       <c r="AA20" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
         <v>0.41</v>
@@ -2316,16 +2442,22 @@
       <c r="AA21" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D22" t="n">
         <v>0.45</v>
@@ -2399,16 +2531,22 @@
       <c r="AA22" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D23" t="n">
         <v>0.58</v>
@@ -2482,16 +2620,22 @@
       <c r="AA23" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D24" t="n">
         <v>0.76</v>
@@ -2565,16 +2709,22 @@
       <c r="AA24" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
         <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
       </c>
       <c r="D25" t="n">
         <v>0.47</v>
@@ -2648,16 +2798,22 @@
       <c r="AA25" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
         <v>0.19</v>
@@ -2731,16 +2887,22 @@
       <c r="AA26" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
         <v>0.09</v>
@@ -2814,16 +2976,22 @@
       <c r="AA27" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AB27" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" t="n">
         <v>0.18</v>
@@ -2897,16 +3065,22 @@
       <c r="AA28" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AB28" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
         <v>0.29</v>
@@ -2980,16 +3154,22 @@
       <c r="AA29" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AB29" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" t="n">
         <v>0.11</v>
@@ -3063,16 +3243,22 @@
       <c r="AA30" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AB30" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D31" t="n">
         <v>0.21</v>
@@ -3146,16 +3332,22 @@
       <c r="AA31" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AB31" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D32" t="n">
         <v>0.18</v>
@@ -3229,16 +3421,22 @@
       <c r="AA32" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AB32" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D33" t="n">
         <v>0.29</v>
@@ -3312,16 +3510,22 @@
       <c r="AA33" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AB33" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D34" t="n">
         <v>0.22</v>
@@ -3395,16 +3599,22 @@
       <c r="AA34" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AB34" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D35" t="n">
         <v>0.14</v>
@@ -3478,16 +3688,22 @@
       <c r="AA35" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AB35" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D36" t="n">
         <v>0.21</v>
@@ -3561,16 +3777,22 @@
       <c r="AA36" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AB36" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
         <v>0.16</v>
@@ -3644,16 +3866,22 @@
       <c r="AA37" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AB37" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D38" t="n">
         <v>0.11</v>
@@ -3727,16 +3955,22 @@
       <c r="AA38" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AB38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39" t="n">
         <v>0.34</v>
@@ -3810,16 +4044,22 @@
       <c r="AA39" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AB39" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D40" t="n">
         <v>0.16</v>
@@ -3893,16 +4133,22 @@
       <c r="AA40" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AB40" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D41" t="n">
         <v>0.09</v>
@@ -3976,16 +4222,22 @@
       <c r="AA41" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AB41" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D42" t="n">
         <v>0.15</v>
@@ -4059,16 +4311,22 @@
       <c r="AA42" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AB42" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D43" t="n">
         <v>0.13</v>
@@ -4142,16 +4400,22 @@
       <c r="AA43" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AB43" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D44" t="n">
         <v>0.2</v>
@@ -4225,16 +4489,22 @@
       <c r="AA44" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AB44" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D45" t="n">
         <v>0.33</v>
@@ -4308,10 +4578,16 @@
       <c r="AA45" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AB45" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4325,7 +4601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4333,7 +4609,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4412,13 +4688,19 @@
       <c r="Z1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
         <v>2639</v>
@@ -4492,13 +4774,19 @@
       <c r="Z2" t="n">
         <v>2061</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>2059</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
         <v>453</v>
@@ -4572,13 +4860,19 @@
       <c r="Z3" t="n">
         <v>228</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>231</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
         <v>632</v>
@@ -4652,13 +4946,19 @@
       <c r="Z4" t="n">
         <v>458</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>455</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
         <v>1554</v>
@@ -4732,13 +5032,19 @@
       <c r="Z5" t="n">
         <v>1375</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>1373</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
         <v>1262</v>
@@ -4812,13 +5118,19 @@
       <c r="Z6" t="n">
         <v>983</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>983</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
         <v>259</v>
@@ -4892,13 +5204,19 @@
       <c r="Z7" t="n">
         <v>183</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>183</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
         <v>765</v>
@@ -4972,13 +5290,19 @@
       <c r="Z8" t="n">
         <v>590</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="n">
+        <v>589</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
         <v>353</v>
@@ -5052,13 +5376,19 @@
       <c r="Z9" t="n">
         <v>305</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>304</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
         <v>1207</v>
@@ -5132,13 +5462,19 @@
       <c r="Z10" t="n">
         <v>936</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>936</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
         <v>245</v>
@@ -5212,13 +5548,19 @@
       <c r="Z11" t="n">
         <v>170</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>169</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" t="n">
         <v>135</v>
@@ -5292,13 +5634,19 @@
       <c r="Z12" t="n">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>129</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" t="n">
         <v>1052</v>
@@ -5372,13 +5720,19 @@
       <c r="Z13" t="n">
         <v>821</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>825</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" t="n">
         <v>1191</v>
@@ -5452,13 +5806,19 @@
       <c r="Z14" t="n">
         <v>942</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>953</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n">
         <v>926</v>
@@ -5532,13 +5892,19 @@
       <c r="Z15" t="n">
         <v>712</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>702</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" t="n">
         <v>522</v>
@@ -5612,13 +5978,19 @@
       <c r="Z16" t="n">
         <v>407</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>404</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" t="n">
         <v>448</v>
@@ -5692,13 +6064,19 @@
       <c r="Z17" t="n">
         <v>251</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>246</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" t="n">
         <v>920</v>
@@ -5772,13 +6150,19 @@
       <c r="Z18" t="n">
         <v>761</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>781</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" t="n">
         <v>632</v>
@@ -5852,13 +6236,19 @@
       <c r="Z19" t="n">
         <v>649</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>645</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" t="n">
         <v>202</v>
@@ -5932,13 +6322,19 @@
       <c r="Z20" t="n">
         <v>254</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>252</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" t="n">
         <v>814</v>
@@ -6012,13 +6408,19 @@
       <c r="Z21" t="n">
         <v>551</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="n">
+        <v>520</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C22" t="n">
         <v>291</v>
@@ -6092,13 +6494,19 @@
       <c r="Z22" t="n">
         <v>360</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="n">
+        <v>372</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" t="n">
         <v>408</v>
@@ -6172,10 +6580,16 @@
       <c r="Z23" t="n">
         <v>231</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="n">
+        <v>234</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -6202,6 +6616,8 @@
       <c r="X24" t="s"/>
       <c r="Y24" t="s"/>
       <c r="Z24" t="s"/>
+      <c r="AA24" t="s"/>
+      <c r="AB24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_03_strategie_domacnosti.xlsx
+++ b/ZBP_03_strategie_domacnosti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>trideni</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>4. 5. 2021</t>
+  </si>
+  <si>
+    <t>25. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -194,10 +197,10 @@
     <t>Velké obavy</t>
   </si>
   <si>
-    <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,7 +583,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,16 +671,19 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>0.52</v>
@@ -757,16 +763,19 @@
       <c r="AC2" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
         <v>0.18</v>
@@ -846,16 +855,19 @@
       <c r="AC3" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AD3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
         <v>0.68</v>
@@ -935,16 +947,19 @@
       <c r="AC4" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
         <v>0.63</v>
@@ -1022,18 +1037,21 @@
         <v>0.28</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>0.28</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
         <v>0.42</v>
@@ -1113,16 +1131,19 @@
       <c r="AC6" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
         <v>0.55</v>
@@ -1202,16 +1223,19 @@
       <c r="AC7" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
         <v>0.6</v>
@@ -1291,16 +1315,19 @@
       <c r="AC8" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
         <v>0.4</v>
@@ -1380,16 +1407,19 @@
       <c r="AC9" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
         <v>0.58</v>
@@ -1469,16 +1499,19 @@
       <c r="AC10" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
         <v>0.55</v>
@@ -1558,16 +1591,19 @@
       <c r="AC11" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
         <v>0.59</v>
@@ -1645,18 +1681,21 @@
         <v>0.26</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>0.22</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" t="n">
         <v>0.57</v>
@@ -1736,16 +1775,19 @@
       <c r="AC13" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AD13" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
         <v>0.45</v>
@@ -1825,16 +1867,19 @@
       <c r="AC14" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
         <v>0.51</v>
@@ -1914,16 +1959,19 @@
       <c r="AC15" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
         <v>0.54</v>
@@ -2003,16 +2051,19 @@
       <c r="AC16" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
         <v>0.47</v>
@@ -2092,16 +2143,19 @@
       <c r="AC17" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" t="n">
         <v>0.6</v>
@@ -2181,16 +2235,19 @@
       <c r="AC18" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
         <v>0.51</v>
@@ -2270,16 +2327,19 @@
       <c r="AC19" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
         <v>0.46</v>
@@ -2359,16 +2419,19 @@
       <c r="AC20" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
         <v>0.41</v>
@@ -2448,16 +2511,19 @@
       <c r="AC21" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
         <v>0.45</v>
@@ -2537,16 +2603,19 @@
       <c r="AC22" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
         <v>0.58</v>
@@ -2626,16 +2695,19 @@
       <c r="AC23" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AD23" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
         <v>0.76</v>
@@ -2715,16 +2787,19 @@
       <c r="AC24" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AD24" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
         <v>33</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
       </c>
       <c r="D25" t="n">
         <v>0.47</v>
@@ -2804,16 +2879,19 @@
       <c r="AC25" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="26" spans="1:29">
+      <c r="AD25" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
         <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
       </c>
       <c r="D26" t="n">
         <v>0.19</v>
@@ -2893,16 +2971,19 @@
       <c r="AC26" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="27" spans="1:29">
+      <c r="AD26" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
         <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
       </c>
       <c r="D27" t="n">
         <v>0.09</v>
@@ -2982,16 +3063,19 @@
       <c r="AC27" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="28" spans="1:29">
+      <c r="AD27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" t="n">
         <v>0.18</v>
@@ -3071,16 +3155,19 @@
       <c r="AC28" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="29" spans="1:29">
+      <c r="AD28" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" t="n">
         <v>0.29</v>
@@ -3160,16 +3247,19 @@
       <c r="AC29" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="30" spans="1:29">
+      <c r="AD29" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" t="n">
         <v>0.11</v>
@@ -3249,16 +3339,19 @@
       <c r="AC30" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:29">
+      <c r="AD30" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" t="n">
         <v>0.21</v>
@@ -3338,16 +3431,19 @@
       <c r="AC31" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:29">
+      <c r="AD31" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" t="n">
         <v>0.18</v>
@@ -3427,16 +3523,19 @@
       <c r="AC32" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="33" spans="1:29">
+      <c r="AD32" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" t="n">
         <v>0.29</v>
@@ -3516,16 +3615,19 @@
       <c r="AC33" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="34" spans="1:29">
+      <c r="AD33" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34" t="n">
         <v>0.22</v>
@@ -3605,16 +3707,19 @@
       <c r="AC34" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="35" spans="1:29">
+      <c r="AD34" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" t="n">
         <v>0.14</v>
@@ -3694,16 +3799,19 @@
       <c r="AC35" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="36" spans="1:29">
+      <c r="AD35" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" t="n">
         <v>0.21</v>
@@ -3783,16 +3891,19 @@
       <c r="AC36" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="37" spans="1:29">
+      <c r="AD36" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" t="n">
         <v>0.16</v>
@@ -3872,16 +3983,19 @@
       <c r="AC37" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="38" spans="1:29">
+      <c r="AD37" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" t="n">
         <v>0.11</v>
@@ -3961,16 +4075,19 @@
       <c r="AC38" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:29">
+      <c r="AD38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39" t="n">
         <v>0.34</v>
@@ -4050,16 +4167,19 @@
       <c r="AC39" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="40" spans="1:29">
+      <c r="AD39" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" t="n">
         <v>0.16</v>
@@ -4139,16 +4259,19 @@
       <c r="AC40" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="41" spans="1:29">
+      <c r="AD40" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" t="n">
         <v>0.09</v>
@@ -4228,16 +4351,19 @@
       <c r="AC41" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="42" spans="1:29">
+      <c r="AD41" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
         <v>0.15</v>
@@ -4317,16 +4443,19 @@
       <c r="AC42" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="43" spans="1:29">
+      <c r="AD42" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D43" t="n">
         <v>0.13</v>
@@ -4406,16 +4535,19 @@
       <c r="AC43" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:29">
+      <c r="AD43" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" t="n">
         <v>0.2</v>
@@ -4495,16 +4627,19 @@
       <c r="AC44" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="45" spans="1:29">
+      <c r="AD44" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D45" t="n">
         <v>0.33</v>
@@ -4584,10 +4719,13 @@
       <c r="AC45" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="46" spans="1:29">
+      <c r="AD45" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4601,7 +4739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB24"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4609,7 +4747,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4694,13 +4832,16 @@
       <c r="AB1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>2639</v>
@@ -4778,15 +4919,18 @@
         <v>2059</v>
       </c>
       <c r="AB2" t="n">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
+        <v>2029</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="n">
         <v>453</v>
@@ -4866,13 +5010,16 @@
       <c r="AB3" t="n">
         <v>218</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
         <v>632</v>
@@ -4950,15 +5097,18 @@
         <v>455</v>
       </c>
       <c r="AB4" t="n">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+        <v>425</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
         <v>1554</v>
@@ -5036,15 +5186,18 @@
         <v>1373</v>
       </c>
       <c r="AB5" t="n">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+        <v>1386</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
         <v>1262</v>
@@ -5122,15 +5275,18 @@
         <v>983</v>
       </c>
       <c r="AB6" t="n">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
+        <v>964</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
         <v>259</v>
@@ -5210,13 +5366,16 @@
       <c r="AB7" t="n">
         <v>181</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
         <v>765</v>
@@ -5294,15 +5453,18 @@
         <v>589</v>
       </c>
       <c r="AB8" t="n">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+        <v>580</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
       </c>
       <c r="C9" t="n">
         <v>353</v>
@@ -5382,13 +5544,16 @@
       <c r="AB9" t="n">
         <v>304</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
         <v>1207</v>
@@ -5466,15 +5631,18 @@
         <v>936</v>
       </c>
       <c r="AB10" t="n">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
+        <v>916</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="n">
         <v>245</v>
@@ -5552,15 +5720,18 @@
         <v>169</v>
       </c>
       <c r="AB11" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
+        <v>167</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="n">
         <v>135</v>
@@ -5638,15 +5809,18 @@
         <v>129</v>
       </c>
       <c r="AB12" t="n">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+        <v>131</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="n">
         <v>1052</v>
@@ -5724,15 +5898,18 @@
         <v>825</v>
       </c>
       <c r="AB13" t="n">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+        <v>815</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="n">
         <v>1191</v>
@@ -5810,15 +5987,18 @@
         <v>953</v>
       </c>
       <c r="AB14" t="n">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
+        <v>935</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="n">
         <v>926</v>
@@ -5896,15 +6076,18 @@
         <v>702</v>
       </c>
       <c r="AB15" t="n">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
+        <v>693</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
         <v>522</v>
@@ -5982,15 +6165,18 @@
         <v>404</v>
       </c>
       <c r="AB16" t="n">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
+        <v>401</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="n">
         <v>448</v>
@@ -6068,15 +6254,18 @@
         <v>246</v>
       </c>
       <c r="AB17" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
+        <v>239</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="n">
         <v>920</v>
@@ -6156,13 +6345,16 @@
       <c r="AB18" t="n">
         <v>736</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18" t="n">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="n">
         <v>632</v>
@@ -6240,15 +6432,18 @@
         <v>645</v>
       </c>
       <c r="AB19" t="n">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+        <v>681</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="n">
         <v>202</v>
@@ -6326,15 +6521,18 @@
         <v>252</v>
       </c>
       <c r="AB20" t="n">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
+        <v>253</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" t="n">
         <v>814</v>
@@ -6414,13 +6612,16 @@
       <c r="AB21" t="n">
         <v>576</v>
       </c>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="n">
         <v>291</v>
@@ -6500,13 +6701,16 @@
       <c r="AB22" t="n">
         <v>340</v>
       </c>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AC22" t="n">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="n">
         <v>408</v>
@@ -6584,12 +6788,15 @@
         <v>234</v>
       </c>
       <c r="AB23" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
+        <v>189</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -6618,6 +6825,7 @@
       <c r="Z24" t="s"/>
       <c r="AA24" t="s"/>
       <c r="AB24" t="s"/>
+      <c r="AC24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_03_strategie_domacnosti.xlsx
+++ b/ZBP_03_strategie_domacnosti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>trideni</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>25. 5. 2021</t>
+  </si>
+  <si>
+    <t>22. 6. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -197,10 +200,10 @@
     <t>Velké obavy</t>
   </si>
   <si>
-    <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AE46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +586,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,16 +677,19 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
         <v>0.52</v>
@@ -766,16 +772,19 @@
       <c r="AD2" t="n">
         <v>0.2</v>
       </c>
+      <c r="AE2" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
         <v>0.18</v>
@@ -858,16 +867,19 @@
       <c r="AD3" t="n">
         <v>0.12</v>
       </c>
+      <c r="AE3" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
         <v>0.68</v>
@@ -950,16 +962,19 @@
       <c r="AD4" t="n">
         <v>0.42</v>
       </c>
+      <c r="AE4" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
         <v>0.63</v>
@@ -1042,16 +1057,19 @@
       <c r="AD5" t="n">
         <v>0.3</v>
       </c>
+      <c r="AE5" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
         <v>0.42</v>
@@ -1134,16 +1152,19 @@
       <c r="AD6" t="n">
         <v>0.13</v>
       </c>
+      <c r="AE6" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
         <v>0.55</v>
@@ -1226,16 +1247,19 @@
       <c r="AD7" t="n">
         <v>0.19</v>
       </c>
+      <c r="AE7" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
         <v>0.6</v>
@@ -1318,16 +1342,19 @@
       <c r="AD8" t="n">
         <v>0.25</v>
       </c>
+      <c r="AE8" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
         <v>0.4</v>
@@ -1410,16 +1437,19 @@
       <c r="AD9" t="n">
         <v>0.18</v>
       </c>
+      <c r="AE9" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
         <v>0.58</v>
@@ -1502,16 +1532,19 @@
       <c r="AD10" t="n">
         <v>0.21</v>
       </c>
+      <c r="AE10" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
         <v>0.55</v>
@@ -1594,16 +1627,19 @@
       <c r="AD11" t="n">
         <v>0.19</v>
       </c>
+      <c r="AE11" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
         <v>0.59</v>
@@ -1686,16 +1722,19 @@
       <c r="AD12" t="n">
         <v>0.22</v>
       </c>
+      <c r="AE12" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
         <v>0.57</v>
@@ -1778,16 +1817,19 @@
       <c r="AD13" t="n">
         <v>0.34</v>
       </c>
+      <c r="AE13" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
         <v>0.45</v>
@@ -1870,16 +1912,19 @@
       <c r="AD14" t="n">
         <v>0.18</v>
       </c>
+      <c r="AE14" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
         <v>0.51</v>
@@ -1962,16 +2007,19 @@
       <c r="AD15" t="n">
         <v>0.18</v>
       </c>
+      <c r="AE15" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
         <v>0.54</v>
@@ -2054,16 +2102,19 @@
       <c r="AD16" t="n">
         <v>0.23</v>
       </c>
+      <c r="AE16" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
         <v>0.47</v>
@@ -2146,16 +2197,19 @@
       <c r="AD17" t="n">
         <v>0.18</v>
       </c>
+      <c r="AE17" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
         <v>0.6</v>
@@ -2238,16 +2292,19 @@
       <c r="AD18" t="n">
         <v>0.2</v>
       </c>
+      <c r="AE18" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
         <v>0.51</v>
@@ -2330,16 +2387,19 @@
       <c r="AD19" t="n">
         <v>0.27</v>
       </c>
+      <c r="AE19" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
         <v>0.46</v>
@@ -2422,16 +2482,19 @@
       <c r="AD20" t="n">
         <v>0.13</v>
       </c>
+      <c r="AE20" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
         <v>0.41</v>
@@ -2514,16 +2577,19 @@
       <c r="AD21" t="n">
         <v>0.16</v>
       </c>
+      <c r="AE21" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="n">
         <v>0.45</v>
@@ -2606,16 +2672,19 @@
       <c r="AD22" t="n">
         <v>0.13</v>
       </c>
+      <c r="AE22" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="n">
         <v>0.58</v>
@@ -2698,16 +2767,19 @@
       <c r="AD23" t="n">
         <v>0.17</v>
       </c>
+      <c r="AE23" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="n">
         <v>0.76</v>
@@ -2790,16 +2862,19 @@
       <c r="AD24" t="n">
         <v>0.43</v>
       </c>
+      <c r="AE24" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
         <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
       </c>
       <c r="D25" t="n">
         <v>0.47</v>
@@ -2882,16 +2957,19 @@
       <c r="AD25" t="n">
         <v>0.39</v>
       </c>
+      <c r="AE25" t="n">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
       </c>
       <c r="D26" t="n">
         <v>0.19</v>
@@ -2974,16 +3052,19 @@
       <c r="AD26" t="n">
         <v>0.17</v>
       </c>
+      <c r="AE26" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
         <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
       </c>
       <c r="D27" t="n">
         <v>0.09</v>
@@ -3066,16 +3147,19 @@
       <c r="AD27" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AE27" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
         <v>0.18</v>
@@ -3158,16 +3242,19 @@
       <c r="AD28" t="n">
         <v>0.12</v>
       </c>
+      <c r="AE28" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
         <v>0.29</v>
@@ -3250,16 +3337,19 @@
       <c r="AD29" t="n">
         <v>0.19</v>
       </c>
+      <c r="AE29" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
         <v>0.11</v>
@@ -3342,16 +3432,19 @@
       <c r="AD30" t="n">
         <v>0.09</v>
       </c>
+      <c r="AE30" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" t="n">
         <v>0.21</v>
@@ -3434,16 +3527,19 @@
       <c r="AD31" t="n">
         <v>0.11</v>
       </c>
+      <c r="AE31" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" t="n">
         <v>0.18</v>
@@ -3526,16 +3622,19 @@
       <c r="AD32" t="n">
         <v>0.12</v>
       </c>
+      <c r="AE32" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" t="n">
         <v>0.29</v>
@@ -3618,16 +3717,19 @@
       <c r="AD33" t="n">
         <v>0.19</v>
       </c>
+      <c r="AE33" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
         <v>0.22</v>
@@ -3710,16 +3812,19 @@
       <c r="AD34" t="n">
         <v>0.19</v>
       </c>
+      <c r="AE34" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" t="n">
         <v>0.14</v>
@@ -3802,16 +3907,19 @@
       <c r="AD35" t="n">
         <v>0.09</v>
       </c>
+      <c r="AE35" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" t="n">
         <v>0.21</v>
@@ -3894,16 +4002,19 @@
       <c r="AD36" t="n">
         <v>0.13</v>
       </c>
+      <c r="AE36" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
         <v>0.16</v>
@@ -3986,16 +4097,19 @@
       <c r="AD37" t="n">
         <v>0.13</v>
       </c>
+      <c r="AE37" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" t="n">
         <v>0.11</v>
@@ -4078,16 +4192,19 @@
       <c r="AD38" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AE38" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" t="n">
         <v>0.34</v>
@@ -4170,16 +4287,19 @@
       <c r="AD39" t="n">
         <v>0.26</v>
       </c>
+      <c r="AE39" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" t="n">
         <v>0.16</v>
@@ -4262,16 +4382,19 @@
       <c r="AD40" t="n">
         <v>0.15</v>
       </c>
+      <c r="AE40" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" t="n">
         <v>0.09</v>
@@ -4354,16 +4477,19 @@
       <c r="AD41" t="n">
         <v>0.06</v>
       </c>
+      <c r="AE41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" t="n">
         <v>0.15</v>
@@ -4446,16 +4572,19 @@
       <c r="AD42" t="n">
         <v>0.08</v>
       </c>
+      <c r="AE42" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
         <v>0.13</v>
@@ -4538,16 +4667,19 @@
       <c r="AD43" t="n">
         <v>0.06</v>
       </c>
+      <c r="AE43" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
         <v>0.2</v>
@@ -4630,16 +4762,19 @@
       <c r="AD44" t="n">
         <v>0.15</v>
       </c>
+      <c r="AE44" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" t="n">
         <v>0.33</v>
@@ -4722,10 +4857,13 @@
       <c r="AD45" t="n">
         <v>0.3</v>
       </c>
+      <c r="AE45" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4739,7 +4877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4747,7 +4885,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4835,13 +4973,16 @@
       <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="AD1" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>2639</v>
@@ -4924,13 +5065,16 @@
       <c r="AC2" t="n">
         <v>1975</v>
       </c>
+      <c r="AD2" t="n">
+        <v>1904</v>
+      </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
         <v>453</v>
@@ -5013,13 +5157,16 @@
       <c r="AC3" t="n">
         <v>186</v>
       </c>
+      <c r="AD3" t="n">
+        <v>183</v>
+      </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
         <v>632</v>
@@ -5102,13 +5249,16 @@
       <c r="AC4" t="n">
         <v>421</v>
       </c>
+      <c r="AD4" t="n">
+        <v>377</v>
+      </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
         <v>1554</v>
@@ -5191,13 +5341,16 @@
       <c r="AC5" t="n">
         <v>1368</v>
       </c>
+      <c r="AD5" t="n">
+        <v>1344</v>
+      </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
         <v>1262</v>
@@ -5280,13 +5433,16 @@
       <c r="AC6" t="n">
         <v>942</v>
       </c>
+      <c r="AD6" t="n">
+        <v>911</v>
+      </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
         <v>259</v>
@@ -5369,13 +5525,16 @@
       <c r="AC7" t="n">
         <v>176</v>
       </c>
+      <c r="AD7" t="n">
+        <v>169</v>
+      </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
         <v>765</v>
@@ -5458,13 +5617,16 @@
       <c r="AC8" t="n">
         <v>565</v>
       </c>
+      <c r="AD8" t="n">
+        <v>545</v>
+      </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
       </c>
       <c r="C9" t="n">
         <v>353</v>
@@ -5547,13 +5709,16 @@
       <c r="AC9" t="n">
         <v>292</v>
       </c>
+      <c r="AD9" t="n">
+        <v>279</v>
+      </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="n">
         <v>1207</v>
@@ -5636,13 +5801,16 @@
       <c r="AC10" t="n">
         <v>895</v>
       </c>
+      <c r="AD10" t="n">
+        <v>866</v>
+      </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="n">
         <v>245</v>
@@ -5725,13 +5893,16 @@
       <c r="AC11" t="n">
         <v>165</v>
       </c>
+      <c r="AD11" t="n">
+        <v>159</v>
+      </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="n">
         <v>135</v>
@@ -5814,13 +5985,16 @@
       <c r="AC12" t="n">
         <v>121</v>
       </c>
+      <c r="AD12" t="n">
+        <v>117</v>
+      </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="n">
         <v>1052</v>
@@ -5903,13 +6077,16 @@
       <c r="AC13" t="n">
         <v>794</v>
       </c>
+      <c r="AD13" t="n">
+        <v>762</v>
+      </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="n">
         <v>1191</v>
@@ -5992,13 +6169,16 @@
       <c r="AC14" t="n">
         <v>903</v>
       </c>
+      <c r="AD14" t="n">
+        <v>867</v>
+      </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="n">
         <v>926</v>
@@ -6081,13 +6261,16 @@
       <c r="AC15" t="n">
         <v>681</v>
       </c>
+      <c r="AD15" t="n">
+        <v>661</v>
+      </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n">
         <v>522</v>
@@ -6170,13 +6353,16 @@
       <c r="AC16" t="n">
         <v>391</v>
       </c>
+      <c r="AD16" t="n">
+        <v>376</v>
+      </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="n">
         <v>448</v>
@@ -6259,13 +6445,16 @@
       <c r="AC17" t="n">
         <v>225</v>
       </c>
+      <c r="AD17" t="n">
+        <v>194</v>
+      </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" t="n">
         <v>920</v>
@@ -6348,13 +6537,16 @@
       <c r="AC18" t="n">
         <v>738</v>
       </c>
+      <c r="AD18" t="n">
+        <v>753</v>
+      </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="n">
         <v>632</v>
@@ -6437,13 +6629,16 @@
       <c r="AC19" t="n">
         <v>639</v>
       </c>
+      <c r="AD19" t="n">
+        <v>580</v>
+      </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="n">
         <v>202</v>
@@ -6526,13 +6721,16 @@
       <c r="AC20" t="n">
         <v>249</v>
       </c>
+      <c r="AD20" t="n">
+        <v>249</v>
+      </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="n">
         <v>814</v>
@@ -6615,13 +6813,16 @@
       <c r="AC21" t="n">
         <v>544</v>
       </c>
+      <c r="AD21" t="n">
+        <v>556</v>
+      </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="n">
         <v>291</v>
@@ -6704,13 +6905,16 @@
       <c r="AC22" t="n">
         <v>335</v>
       </c>
+      <c r="AD22" t="n">
+        <v>345</v>
+      </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" t="n">
         <v>408</v>
@@ -6793,10 +6997,13 @@
       <c r="AC23" t="n">
         <v>199</v>
       </c>
+      <c r="AD23" t="n">
+        <v>158</v>
+      </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -6826,6 +7033,7 @@
       <c r="AA24" t="s"/>
       <c r="AB24" t="s"/>
       <c r="AC24" t="s"/>
+      <c r="AD24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_03_strategie_domacnosti.xlsx
+++ b/ZBP_03_strategie_domacnosti.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,200 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
-  <si>
-    <t>trideni</t>
-  </si>
-  <si>
-    <t>kategorie trideni</t>
-  </si>
-  <si>
-    <t>ukazatel</t>
-  </si>
-  <si>
-    <t>1. 4. 2020</t>
-  </si>
-  <si>
-    <t>15. 4. 2020</t>
-  </si>
-  <si>
-    <t>28. 4. 2020</t>
-  </si>
-  <si>
-    <t>12. 5. 2020</t>
-  </si>
-  <si>
-    <t>26. 5. 2020</t>
-  </si>
-  <si>
-    <t>16. 6. 2020</t>
-  </si>
-  <si>
-    <t>30. 6. 2020</t>
-  </si>
-  <si>
-    <t>21. 7. 2020</t>
-  </si>
-  <si>
-    <t>11. 8. 2020</t>
-  </si>
-  <si>
-    <t>1. 9. 2020</t>
-  </si>
-  <si>
-    <t>15. 9. 2020</t>
-  </si>
-  <si>
-    <t>30. 9. 2020</t>
-  </si>
-  <si>
-    <t>13. 10. 2020</t>
-  </si>
-  <si>
-    <t>27. 10. 2020</t>
-  </si>
-  <si>
-    <t>10. 11. 2020</t>
-  </si>
-  <si>
-    <t>24. 11. 2020</t>
-  </si>
-  <si>
-    <t>8. 12. 2020</t>
-  </si>
-  <si>
-    <t>22. 12. 2020</t>
-  </si>
-  <si>
-    <t>5. 1. 2021</t>
-  </si>
-  <si>
-    <t>26. 1. 2021</t>
-  </si>
-  <si>
-    <t>16. 2. 2021</t>
-  </si>
-  <si>
-    <t>2. 3. 2021</t>
-  </si>
-  <si>
-    <t>16. 3. 2021</t>
-  </si>
-  <si>
-    <t>30. 3. 2021</t>
-  </si>
-  <si>
-    <t>13. 4. 2021</t>
-  </si>
-  <si>
-    <t>4. 5. 2021</t>
-  </si>
-  <si>
-    <t>25. 5. 2021</t>
-  </si>
-  <si>
-    <t>22. 6. 2021</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Celkem</t>
-  </si>
-  <si>
-    <t>Plánované omezení spotřeby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
-  </si>
-  <si>
-    <t>Zasažení domácnosti krizí</t>
-  </si>
-  <si>
-    <t>Těžce ekonomicky zasažení</t>
-  </si>
-  <si>
-    <t>Lehce ekonomicky zasažení</t>
-  </si>
-  <si>
-    <t>Ostatní</t>
-  </si>
-  <si>
-    <t>Pracovní status před krizí</t>
-  </si>
-  <si>
-    <t>Zaměstnanec</t>
-  </si>
-  <si>
-    <t>OSVČ</t>
-  </si>
-  <si>
-    <t>Důchodce</t>
-  </si>
-  <si>
-    <t>Forma práce před krizí</t>
-  </si>
-  <si>
-    <t>Jen zaměstnanecká smlouva</t>
-  </si>
-  <si>
-    <t>Fakturující – OSVČ</t>
-  </si>
-  <si>
-    <t>Dohodáři a s příjmy na černo</t>
-  </si>
-  <si>
-    <t>Nepracující</t>
-  </si>
-  <si>
-    <t>Vzdělání</t>
-  </si>
-  <si>
-    <t>ZŠ a SŠ bez maturity</t>
-  </si>
-  <si>
-    <t>SŠ s maturitou</t>
-  </si>
-  <si>
-    <t>VŠ</t>
-  </si>
-  <si>
-    <t>Příjem domácnosti aktuální</t>
-  </si>
-  <si>
-    <t>Pod hranicí chudoby</t>
-  </si>
-  <si>
-    <t>Nízkopříjmová</t>
-  </si>
-  <si>
-    <t>Nadstandardně příjmová</t>
-  </si>
-  <si>
-    <t>Vysokopříjmová</t>
-  </si>
-  <si>
-    <t>Obavy ze ztráty práce</t>
-  </si>
-  <si>
-    <t>Klidný</t>
-  </si>
-  <si>
-    <t>Částečné obavy</t>
-  </si>
-  <si>
-    <t>Velké obavy</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -267,25 +73,92 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -578,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE46"/>
+  <dimension ref="A1:AF46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,110 +459,183 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ukazatel</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>0.52</v>
@@ -775,16 +721,25 @@
       <c r="AE2" t="n">
         <v>0.2</v>
       </c>
+      <c r="AF2" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0.18</v>
@@ -870,16 +825,25 @@
       <c r="AE3" t="n">
         <v>0.12</v>
       </c>
+      <c r="AF3" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Zasažení domácnosti krizí</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Těžce ekonomicky zasažení</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>0.68</v>
@@ -965,16 +929,25 @@
       <c r="AE4" t="n">
         <v>0.46</v>
       </c>
+      <c r="AF4" t="n">
+        <v>0.41</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Zasažení domácnosti krizí</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lehce ekonomicky zasažení</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>0.63</v>
@@ -1060,16 +1033,25 @@
       <c r="AE5" t="n">
         <v>0.29</v>
       </c>
+      <c r="AF5" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Zasažení domácnosti krizí</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>0.42</v>
@@ -1155,16 +1137,25 @@
       <c r="AE6" t="n">
         <v>0.13</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0.55</v>
@@ -1250,16 +1241,25 @@
       <c r="AE7" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF7" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>0.6</v>
@@ -1345,16 +1345,25 @@
       <c r="AE8" t="n">
         <v>0.26</v>
       </c>
+      <c r="AF8" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Důchodce</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>0.4</v>
@@ -1440,16 +1449,25 @@
       <c r="AE9" t="n">
         <v>0.17</v>
       </c>
+      <c r="AF9" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>0.58</v>
@@ -1535,16 +1553,25 @@
       <c r="AE10" t="n">
         <v>0.24</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jen zaměstnanecká smlouva</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>0.55</v>
@@ -1630,16 +1657,25 @@
       <c r="AE11" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF11" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fakturující – OSVČ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>0.59</v>
@@ -1725,16 +1761,25 @@
       <c r="AE12" t="n">
         <v>0.23</v>
       </c>
+      <c r="AF12" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dohodáři a s příjmy na černo</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>0.57</v>
@@ -1820,16 +1865,25 @@
       <c r="AE13" t="n">
         <v>0.31</v>
       </c>
+      <c r="AF13" t="n">
+        <v>0.39</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nepracující</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>0.45</v>
@@ -1915,16 +1969,25 @@
       <c r="AE14" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF14" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>0.51</v>
@@ -2010,16 +2073,25 @@
       <c r="AE15" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF15" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>0.54</v>
@@ -2105,16 +2177,25 @@
       <c r="AE16" t="n">
         <v>0.23</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>0.47</v>
@@ -2200,16 +2281,25 @@
       <c r="AE17" t="n">
         <v>0.17</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pod hranicí chudoby</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>0.6</v>
@@ -2295,16 +2385,25 @@
       <c r="AE18" t="n">
         <v>0.26</v>
       </c>
+      <c r="AF18" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nízkopříjmová</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>0.51</v>
@@ -2390,16 +2489,25 @@
       <c r="AE19" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF19" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nadstandardně příjmová</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>0.46</v>
@@ -2485,16 +2593,25 @@
       <c r="AE20" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF20" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Vysokopříjmová</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>0.41</v>
@@ -2580,16 +2697,25 @@
       <c r="AE21" t="n">
         <v>0.13</v>
       </c>
+      <c r="AF21" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Obavy ze ztráty práce</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>0.45</v>
@@ -2675,16 +2801,25 @@
       <c r="AE22" t="n">
         <v>0.12</v>
       </c>
+      <c r="AF22" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Obavy ze ztráty práce</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D23" t="n">
         <v>0.58</v>
@@ -2770,16 +2905,25 @@
       <c r="AE23" t="n">
         <v>0.23</v>
       </c>
+      <c r="AF23" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Obavy ze ztráty práce</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Plánované omezení spotřeby</t>
+        </is>
       </c>
       <c r="D24" t="n">
         <v>0.76</v>
@@ -2865,16 +3009,25 @@
       <c r="AE24" t="n">
         <v>0.4</v>
       </c>
+      <c r="AF24" t="n">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="25" spans="1:31">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Zasažení domácnosti krizí</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Těžce ekonomicky zasažení</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D25" t="n">
         <v>0.47</v>
@@ -2960,16 +3113,25 @@
       <c r="AE25" t="n">
         <v>0.43</v>
       </c>
+      <c r="AF25" t="n">
+        <v>0.39</v>
+      </c>
     </row>
-    <row r="26" spans="1:31">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Zasažení domácnosti krizí</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Lehce ekonomicky zasažení</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D26" t="n">
         <v>0.19</v>
@@ -3055,16 +3217,25 @@
       <c r="AE26" t="n">
         <v>0.17</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="27" spans="1:31">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Zasažení domácnosti krizí</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D27" t="n">
         <v>0.09</v>
@@ -3150,16 +3321,25 @@
       <c r="AE27" t="n">
         <v>0.06</v>
       </c>
+      <c r="AF27" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="28" spans="1:31">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D28" t="n">
         <v>0.18</v>
@@ -3245,16 +3425,25 @@
       <c r="AE28" t="n">
         <v>0.12</v>
       </c>
+      <c r="AF28" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="29" spans="1:31">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D29" t="n">
         <v>0.29</v>
@@ -3340,16 +3529,25 @@
       <c r="AE29" t="n">
         <v>0.2</v>
       </c>
+      <c r="AF29" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="30" spans="1:31">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>34</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Důchodce</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D30" t="n">
         <v>0.11</v>
@@ -3435,16 +3633,25 @@
       <c r="AE30" t="n">
         <v>0.08</v>
       </c>
+      <c r="AF30" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="31" spans="1:31">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D31" t="n">
         <v>0.21</v>
@@ -3530,16 +3737,25 @@
       <c r="AE31" t="n">
         <v>0.12</v>
       </c>
+      <c r="AF31" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="32" spans="1:31">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Jen zaměstnanecká smlouva</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D32" t="n">
         <v>0.18</v>
@@ -3625,16 +3841,25 @@
       <c r="AE32" t="n">
         <v>0.12</v>
       </c>
+      <c r="AF32" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="33" spans="1:31">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" t="s">
-        <v>34</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fakturující – OSVČ</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D33" t="n">
         <v>0.29</v>
@@ -3720,16 +3945,25 @@
       <c r="AE33" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF33" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="34" spans="1:31">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Dohodáři a s příjmy na černo</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D34" t="n">
         <v>0.22</v>
@@ -3815,16 +4049,25 @@
       <c r="AE34" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF34" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="35" spans="1:31">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nepracující</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D35" t="n">
         <v>0.14</v>
@@ -3910,16 +4153,25 @@
       <c r="AE35" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF35" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="36" spans="1:31">
-      <c r="A36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" t="s">
-        <v>34</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D36" t="n">
         <v>0.21</v>
@@ -4005,16 +4257,25 @@
       <c r="AE36" t="n">
         <v>0.11</v>
       </c>
+      <c r="AF36" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="37" spans="1:31">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D37" t="n">
         <v>0.16</v>
@@ -4100,16 +4361,25 @@
       <c r="AE37" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF37" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="38" spans="1:31">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D38" t="n">
         <v>0.11</v>
@@ -4195,16 +4465,25 @@
       <c r="AE38" t="n">
         <v>0.08</v>
       </c>
+      <c r="AF38" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="39" spans="1:31">
-      <c r="A39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" t="s">
-        <v>34</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Pod hranicí chudoby</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D39" t="n">
         <v>0.34</v>
@@ -4290,16 +4569,25 @@
       <c r="AE39" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF39" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="40" spans="1:31">
-      <c r="A40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" t="s">
-        <v>34</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nízkopříjmová</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D40" t="n">
         <v>0.16</v>
@@ -4385,16 +4673,25 @@
       <c r="AE40" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF40" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="41" spans="1:31">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nadstandardně příjmová</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D41" t="n">
         <v>0.09</v>
@@ -4480,16 +4777,25 @@
       <c r="AE41" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AF41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="42" spans="1:31">
-      <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" t="s">
-        <v>34</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Vysokopříjmová</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D42" t="n">
         <v>0.15</v>
@@ -4575,16 +4881,25 @@
       <c r="AE42" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AF42" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="43" spans="1:31">
-      <c r="A43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" t="s">
-        <v>34</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Obavy ze ztráty práce</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D43" t="n">
         <v>0.13</v>
@@ -4670,16 +4985,25 @@
       <c r="AE43" t="n">
         <v>0.08</v>
       </c>
+      <c r="AF43" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="44" spans="1:31">
-      <c r="A44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" t="s">
-        <v>34</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Obavy ze ztráty práce</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D44" t="n">
         <v>0.2</v>
@@ -4765,16 +5089,25 @@
       <c r="AE44" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF44" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="45" spans="1:31">
-      <c r="A45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" t="s">
-        <v>34</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Obavy ze ztráty práce</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plánované půjčky nebo problémy se splácením </t>
+        </is>
       </c>
       <c r="D45" t="n">
         <v>0.33</v>
@@ -4860,14 +5193,19 @@
       <c r="AE45" t="n">
         <v>0.24</v>
       </c>
+      <c r="AF45" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="46" spans="1:31">
-      <c r="A46" t="s">
-        <v>61</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4877,7 +5215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD24"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4885,104 +5223,173 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>30</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:30">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>2639</v>
@@ -5068,13 +5475,20 @@
       <c r="AD2" t="n">
         <v>1904</v>
       </c>
+      <c r="AE2" t="n">
+        <v>1782</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Zasažení domácnosti krizí</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Těžce ekonomicky zasažení</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>453</v>
@@ -5160,13 +5574,20 @@
       <c r="AD3" t="n">
         <v>183</v>
       </c>
+      <c r="AE3" t="n">
+        <v>158</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Zasažení domácnosti krizí</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lehce ekonomicky zasažení</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>632</v>
@@ -5252,13 +5673,20 @@
       <c r="AD4" t="n">
         <v>377</v>
       </c>
+      <c r="AE4" t="n">
+        <v>372</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Zasažení domácnosti krizí</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>1554</v>
@@ -5344,13 +5772,20 @@
       <c r="AD5" t="n">
         <v>1344</v>
       </c>
+      <c r="AE5" t="n">
+        <v>1252</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>1262</v>
@@ -5436,13 +5871,20 @@
       <c r="AD6" t="n">
         <v>911</v>
       </c>
+      <c r="AE6" t="n">
+        <v>850</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>259</v>
@@ -5528,13 +5970,20 @@
       <c r="AD7" t="n">
         <v>169</v>
       </c>
+      <c r="AE7" t="n">
+        <v>159</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Důchodce</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>765</v>
@@ -5620,13 +6069,20 @@
       <c r="AD8" t="n">
         <v>545</v>
       </c>
+      <c r="AE8" t="n">
+        <v>515</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>353</v>
@@ -5712,13 +6168,20 @@
       <c r="AD9" t="n">
         <v>279</v>
       </c>
+      <c r="AE9" t="n">
+        <v>258</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jen zaměstnanecká smlouva</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>1207</v>
@@ -5804,13 +6267,20 @@
       <c r="AD10" t="n">
         <v>866</v>
       </c>
+      <c r="AE10" t="n">
+        <v>805</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fakturující – OSVČ</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>245</v>
@@ -5896,13 +6366,20 @@
       <c r="AD11" t="n">
         <v>159</v>
       </c>
+      <c r="AE11" t="n">
+        <v>146</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dohodáři a s příjmy na černo</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>135</v>
@@ -5988,13 +6465,20 @@
       <c r="AD12" t="n">
         <v>117</v>
       </c>
+      <c r="AE12" t="n">
+        <v>121</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nepracující</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>1052</v>
@@ -6080,13 +6564,20 @@
       <c r="AD13" t="n">
         <v>762</v>
       </c>
+      <c r="AE13" t="n">
+        <v>710</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>1191</v>
@@ -6172,13 +6663,20 @@
       <c r="AD14" t="n">
         <v>867</v>
       </c>
+      <c r="AE14" t="n">
+        <v>805</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>926</v>
@@ -6264,13 +6762,20 @@
       <c r="AD15" t="n">
         <v>661</v>
       </c>
+      <c r="AE15" t="n">
+        <v>622</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>522</v>
@@ -6356,13 +6861,20 @@
       <c r="AD16" t="n">
         <v>376</v>
       </c>
+      <c r="AE16" t="n">
+        <v>355</v>
+      </c>
     </row>
-    <row r="17" spans="1:30">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pod hranicí chudoby</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>448</v>
@@ -6448,13 +6960,20 @@
       <c r="AD17" t="n">
         <v>194</v>
       </c>
+      <c r="AE17" t="n">
+        <v>201</v>
+      </c>
     </row>
-    <row r="18" spans="1:30">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nízkopříjmová</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>920</v>
@@ -6540,13 +7059,20 @@
       <c r="AD18" t="n">
         <v>753</v>
       </c>
+      <c r="AE18" t="n">
+        <v>684</v>
+      </c>
     </row>
-    <row r="19" spans="1:30">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nadstandardně příjmová</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>632</v>
@@ -6632,13 +7158,20 @@
       <c r="AD19" t="n">
         <v>580</v>
       </c>
+      <c r="AE19" t="n">
+        <v>557</v>
+      </c>
     </row>
-    <row r="20" spans="1:30">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Vysokopříjmová</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>202</v>
@@ -6724,13 +7257,20 @@
       <c r="AD20" t="n">
         <v>249</v>
       </c>
+      <c r="AE20" t="n">
+        <v>236</v>
+      </c>
     </row>
-    <row r="21" spans="1:30">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Obavy ze ztráty práce</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>814</v>
@@ -6816,13 +7356,20 @@
       <c r="AD21" t="n">
         <v>556</v>
       </c>
+      <c r="AE21" t="n">
+        <v>532</v>
+      </c>
     </row>
-    <row r="22" spans="1:30">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Obavy ze ztráty práce</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>291</v>
@@ -6908,13 +7455,20 @@
       <c r="AD22" t="n">
         <v>345</v>
       </c>
+      <c r="AE22" t="n">
+        <v>333</v>
+      </c>
     </row>
-    <row r="23" spans="1:30">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Obavy ze ztráty práce</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="C23" t="n">
         <v>408</v>
@@ -7000,42 +7554,48 @@
       <c r="AD23" t="n">
         <v>158</v>
       </c>
+      <c r="AE23" t="n">
+        <v>143</v>
+      </c>
     </row>
-    <row r="24" spans="1:30">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
-      <c r="D24" t="s"/>
-      <c r="E24" t="s"/>
-      <c r="F24" t="s"/>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s"/>
-      <c r="J24" t="s"/>
-      <c r="K24" t="s"/>
-      <c r="L24" t="s"/>
-      <c r="M24" t="s"/>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
-      <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
-      <c r="V24" t="s"/>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
-      <c r="Z24" t="s"/>
-      <c r="AA24" t="s"/>
-      <c r="AB24" t="s"/>
-      <c r="AC24" t="s"/>
-      <c r="AD24" t="s"/>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ZBP_03_strategie_domacnosti.xlsx
+++ b/ZBP_03_strategie_domacnosti.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF46"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,6 +620,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -724,6 +729,9 @@
       <c r="AF2" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG2" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -828,6 +836,9 @@
       <c r="AF3" t="n">
         <v>0.1</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -932,6 +943,9 @@
       <c r="AF4" t="n">
         <v>0.41</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1036,6 +1050,9 @@
       <c r="AF5" t="n">
         <v>0.26</v>
       </c>
+      <c r="AG5" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1140,6 +1157,9 @@
       <c r="AF6" t="n">
         <v>0.13</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1244,6 +1264,9 @@
       <c r="AF7" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG7" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1348,6 +1371,9 @@
       <c r="AF8" t="n">
         <v>0.23</v>
       </c>
+      <c r="AG8" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1452,6 +1478,9 @@
       <c r="AF9" t="n">
         <v>0.16</v>
       </c>
+      <c r="AG9" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1556,6 +1585,9 @@
       <c r="AF10" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1660,6 +1692,9 @@
       <c r="AF11" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG11" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1764,6 +1799,9 @@
       <c r="AF12" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG12" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1868,6 +1906,9 @@
       <c r="AF13" t="n">
         <v>0.39</v>
       </c>
+      <c r="AG13" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1972,6 +2013,9 @@
       <c r="AF14" t="n">
         <v>0.16</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2076,6 +2120,9 @@
       <c r="AF15" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG15" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2180,6 +2227,9 @@
       <c r="AF16" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2284,6 +2334,9 @@
       <c r="AF17" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2388,6 +2441,9 @@
       <c r="AF18" t="n">
         <v>0.24</v>
       </c>
+      <c r="AG18" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2492,6 +2548,9 @@
       <c r="AF19" t="n">
         <v>0.21</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2596,6 +2655,9 @@
       <c r="AF20" t="n">
         <v>0.16</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2700,6 +2762,9 @@
       <c r="AF21" t="n">
         <v>0.15</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2804,6 +2869,9 @@
       <c r="AF22" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2908,6 +2976,9 @@
       <c r="AF23" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG23" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3012,6 +3083,9 @@
       <c r="AF24" t="n">
         <v>0.44</v>
       </c>
+      <c r="AG24" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3116,6 +3190,9 @@
       <c r="AF25" t="n">
         <v>0.39</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3220,6 +3297,9 @@
       <c r="AF26" t="n">
         <v>0.13</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3324,6 +3404,9 @@
       <c r="AF27" t="n">
         <v>0.06</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3428,6 +3511,9 @@
       <c r="AF28" t="n">
         <v>0.1</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3532,6 +3618,9 @@
       <c r="AF29" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG29" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3636,6 +3725,9 @@
       <c r="AF30" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3740,6 +3832,9 @@
       <c r="AF31" t="n">
         <v>0.09</v>
       </c>
+      <c r="AG31" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3844,6 +3939,9 @@
       <c r="AF32" t="n">
         <v>0.1</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3948,6 +4046,9 @@
       <c r="AF33" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4052,6 +4153,9 @@
       <c r="AF34" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG34" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4156,6 +4260,9 @@
       <c r="AF35" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4260,6 +4367,9 @@
       <c r="AF36" t="n">
         <v>0.1</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4364,6 +4474,9 @@
       <c r="AF37" t="n">
         <v>0.12</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4468,6 +4581,9 @@
       <c r="AF38" t="n">
         <v>0.06</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4572,6 +4688,9 @@
       <c r="AF39" t="n">
         <v>0.21</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4676,6 +4795,9 @@
       <c r="AF40" t="n">
         <v>0.11</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4780,6 +4902,9 @@
       <c r="AF41" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4884,6 +5009,9 @@
       <c r="AF42" t="n">
         <v>0.06</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4988,6 +5116,9 @@
       <c r="AF43" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5092,6 +5223,9 @@
       <c r="AF44" t="n">
         <v>0.16</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5196,11 +5330,14 @@
       <c r="AF45" t="n">
         <v>0.27</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
     </row>
@@ -5215,7 +5352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE24"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5379,6 +5516,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5478,6 +5620,9 @@
       <c r="AE2" t="n">
         <v>1782</v>
       </c>
+      <c r="AF2" t="n">
+        <v>1901</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5577,6 +5722,9 @@
       <c r="AE3" t="n">
         <v>158</v>
       </c>
+      <c r="AF3" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5676,6 +5824,9 @@
       <c r="AE4" t="n">
         <v>372</v>
       </c>
+      <c r="AF4" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5775,6 +5926,9 @@
       <c r="AE5" t="n">
         <v>1252</v>
       </c>
+      <c r="AF5" t="n">
+        <v>1336</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5874,6 +6028,9 @@
       <c r="AE6" t="n">
         <v>850</v>
       </c>
+      <c r="AF6" t="n">
+        <v>916</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5973,6 +6130,9 @@
       <c r="AE7" t="n">
         <v>159</v>
       </c>
+      <c r="AF7" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6072,6 +6232,9 @@
       <c r="AE8" t="n">
         <v>515</v>
       </c>
+      <c r="AF8" t="n">
+        <v>544</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6171,6 +6334,9 @@
       <c r="AE9" t="n">
         <v>258</v>
       </c>
+      <c r="AF9" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6270,6 +6436,9 @@
       <c r="AE10" t="n">
         <v>805</v>
       </c>
+      <c r="AF10" t="n">
+        <v>874</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6369,6 +6538,9 @@
       <c r="AE11" t="n">
         <v>146</v>
       </c>
+      <c r="AF11" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6468,6 +6640,9 @@
       <c r="AE12" t="n">
         <v>121</v>
       </c>
+      <c r="AF12" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6567,6 +6742,9 @@
       <c r="AE13" t="n">
         <v>710</v>
       </c>
+      <c r="AF13" t="n">
+        <v>756</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6666,6 +6844,9 @@
       <c r="AE14" t="n">
         <v>805</v>
       </c>
+      <c r="AF14" t="n">
+        <v>872</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6765,6 +6946,9 @@
       <c r="AE15" t="n">
         <v>622</v>
       </c>
+      <c r="AF15" t="n">
+        <v>654</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6864,6 +7048,9 @@
       <c r="AE16" t="n">
         <v>355</v>
       </c>
+      <c r="AF16" t="n">
+        <v>375</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6963,6 +7150,9 @@
       <c r="AE17" t="n">
         <v>201</v>
       </c>
+      <c r="AF17" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7062,6 +7252,9 @@
       <c r="AE18" t="n">
         <v>684</v>
       </c>
+      <c r="AF18" t="n">
+        <v>729</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7161,6 +7354,9 @@
       <c r="AE19" t="n">
         <v>557</v>
       </c>
+      <c r="AF19" t="n">
+        <v>583</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7260,6 +7456,9 @@
       <c r="AE20" t="n">
         <v>236</v>
       </c>
+      <c r="AF20" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7359,6 +7558,9 @@
       <c r="AE21" t="n">
         <v>532</v>
       </c>
+      <c r="AF21" t="n">
+        <v>598</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7458,6 +7660,9 @@
       <c r="AE22" t="n">
         <v>333</v>
       </c>
+      <c r="AF22" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7557,11 +7762,14 @@
       <c r="AE23" t="n">
         <v>143</v>
       </c>
+      <c r="AF23" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -7594,6 +7802,7 @@
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_03_strategie_domacnosti.xlsx
+++ b/ZBP_03_strategie_domacnosti.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -732,6 +737,9 @@
       <c r="AG2" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -839,6 +847,9 @@
       <c r="AG3" t="n">
         <v>0.12</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -946,6 +957,9 @@
       <c r="AG4" t="n">
         <v>0.44</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1053,6 +1067,9 @@
       <c r="AG5" t="n">
         <v>0.28</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1160,6 +1177,9 @@
       <c r="AG6" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1267,6 +1287,9 @@
       <c r="AG7" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1374,6 +1397,9 @@
       <c r="AG8" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1481,6 +1507,9 @@
       <c r="AG9" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1588,6 +1617,9 @@
       <c r="AG10" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1695,6 +1727,9 @@
       <c r="AG11" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1802,6 +1837,9 @@
       <c r="AG12" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1909,6 +1947,9 @@
       <c r="AG13" t="n">
         <v>0.39</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2016,6 +2057,9 @@
       <c r="AG14" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2123,6 +2167,9 @@
       <c r="AG15" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2230,6 +2277,9 @@
       <c r="AG16" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2337,6 +2387,9 @@
       <c r="AG17" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2444,6 +2497,9 @@
       <c r="AG18" t="n">
         <v>0.25</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2551,6 +2607,9 @@
       <c r="AG19" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2658,6 +2717,9 @@
       <c r="AG20" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2765,6 +2827,9 @@
       <c r="AG21" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2872,6 +2937,9 @@
       <c r="AG22" t="n">
         <v>0.11</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2979,6 +3047,9 @@
       <c r="AG23" t="n">
         <v>0.23</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3086,6 +3157,9 @@
       <c r="AG24" t="n">
         <v>0.39</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3193,6 +3267,9 @@
       <c r="AG25" t="n">
         <v>0.38</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3300,6 +3377,9 @@
       <c r="AG26" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3407,6 +3487,9 @@
       <c r="AG27" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3514,6 +3597,9 @@
       <c r="AG28" t="n">
         <v>0.12</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3621,6 +3707,9 @@
       <c r="AG29" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3728,6 +3817,9 @@
       <c r="AG30" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3835,6 +3927,9 @@
       <c r="AG31" t="n">
         <v>0.12</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3942,6 +4037,9 @@
       <c r="AG32" t="n">
         <v>0.12</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4049,6 +4147,9 @@
       <c r="AG33" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4156,6 +4257,9 @@
       <c r="AG34" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4263,6 +4367,9 @@
       <c r="AG35" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4370,6 +4477,9 @@
       <c r="AG36" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4477,6 +4587,9 @@
       <c r="AG37" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4584,6 +4697,9 @@
       <c r="AG38" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4691,6 +4807,9 @@
       <c r="AG39" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4798,6 +4917,9 @@
       <c r="AG40" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4905,6 +5027,9 @@
       <c r="AG41" t="n">
         <v>0.09</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5012,6 +5137,9 @@
       <c r="AG42" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5119,6 +5247,9 @@
       <c r="AG43" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5226,6 +5357,9 @@
       <c r="AG44" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5333,11 +5467,14 @@
       <c r="AG45" t="n">
         <v>0.23</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -5352,7 +5489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF24"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5521,6 +5658,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5623,6 +5765,9 @@
       <c r="AF2" t="n">
         <v>1901</v>
       </c>
+      <c r="AG2" t="n">
+        <v>1855</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5725,6 +5870,9 @@
       <c r="AF3" t="n">
         <v>200</v>
       </c>
+      <c r="AG3" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5827,6 +5975,9 @@
       <c r="AF4" t="n">
         <v>365</v>
       </c>
+      <c r="AG4" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5929,6 +6080,9 @@
       <c r="AF5" t="n">
         <v>1336</v>
       </c>
+      <c r="AG5" t="n">
+        <v>1320</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6031,6 +6185,9 @@
       <c r="AF6" t="n">
         <v>916</v>
       </c>
+      <c r="AG6" t="n">
+        <v>888</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6133,6 +6290,9 @@
       <c r="AF7" t="n">
         <v>169</v>
       </c>
+      <c r="AG7" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6235,6 +6395,9 @@
       <c r="AF8" t="n">
         <v>544</v>
       </c>
+      <c r="AG8" t="n">
+        <v>531</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6337,6 +6500,9 @@
       <c r="AF9" t="n">
         <v>272</v>
       </c>
+      <c r="AG9" t="n">
+        <v>271</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6439,6 +6605,9 @@
       <c r="AF10" t="n">
         <v>874</v>
       </c>
+      <c r="AG10" t="n">
+        <v>853</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6541,6 +6710,9 @@
       <c r="AF11" t="n">
         <v>159</v>
       </c>
+      <c r="AG11" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6643,6 +6815,9 @@
       <c r="AF12" t="n">
         <v>112</v>
       </c>
+      <c r="AG12" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6745,6 +6920,9 @@
       <c r="AF13" t="n">
         <v>756</v>
       </c>
+      <c r="AG13" t="n">
+        <v>743</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6847,6 +7025,9 @@
       <c r="AF14" t="n">
         <v>872</v>
       </c>
+      <c r="AG14" t="n">
+        <v>859</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6949,6 +7130,9 @@
       <c r="AF15" t="n">
         <v>654</v>
       </c>
+      <c r="AG15" t="n">
+        <v>631</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7051,6 +7235,9 @@
       <c r="AF16" t="n">
         <v>375</v>
       </c>
+      <c r="AG16" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7153,6 +7340,9 @@
       <c r="AF17" t="n">
         <v>200</v>
       </c>
+      <c r="AG17" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7255,6 +7445,9 @@
       <c r="AF18" t="n">
         <v>729</v>
       </c>
+      <c r="AG18" t="n">
+        <v>679</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7357,6 +7550,9 @@
       <c r="AF19" t="n">
         <v>583</v>
       </c>
+      <c r="AG19" t="n">
+        <v>613</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7459,6 +7655,9 @@
       <c r="AF20" t="n">
         <v>263</v>
       </c>
+      <c r="AG20" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7561,6 +7760,9 @@
       <c r="AF21" t="n">
         <v>598</v>
       </c>
+      <c r="AG21" t="n">
+        <v>566</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7663,6 +7865,9 @@
       <c r="AF22" t="n">
         <v>311</v>
       </c>
+      <c r="AG22" t="n">
+        <v>309</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7765,11 +7970,14 @@
       <c r="AF23" t="n">
         <v>164</v>
       </c>
+      <c r="AG23" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -7803,6 +8011,7 @@
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_03_strategie_domacnosti.xlsx
+++ b/ZBP_03_strategie_domacnosti.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,6 +630,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -740,6 +745,9 @@
       <c r="AH2" t="n">
         <v>0.18</v>
       </c>
+      <c r="AI2" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -850,6 +858,9 @@
       <c r="AH3" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -960,6 +971,9 @@
       <c r="AH4" t="n">
         <v>0.41</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1070,6 +1084,9 @@
       <c r="AH5" t="n">
         <v>0.28</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1180,6 +1197,9 @@
       <c r="AH6" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1290,6 +1310,9 @@
       <c r="AH7" t="n">
         <v>0.17</v>
       </c>
+      <c r="AI7" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1400,6 +1423,9 @@
       <c r="AH8" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI8" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1510,6 +1536,9 @@
       <c r="AH9" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI9" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1620,6 +1649,9 @@
       <c r="AH10" t="n">
         <v>0.2</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1730,6 +1762,9 @@
       <c r="AH11" t="n">
         <v>0.17</v>
       </c>
+      <c r="AI11" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1840,6 +1875,9 @@
       <c r="AH12" t="n">
         <v>0.18</v>
       </c>
+      <c r="AI12" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1950,6 +1988,9 @@
       <c r="AH13" t="n">
         <v>0.37</v>
       </c>
+      <c r="AI13" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2060,6 +2101,9 @@
       <c r="AH14" t="n">
         <v>0.18</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2170,6 +2214,9 @@
       <c r="AH15" t="n">
         <v>0.17</v>
       </c>
+      <c r="AI15" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2280,6 +2327,9 @@
       <c r="AH16" t="n">
         <v>0.21</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2390,6 +2440,9 @@
       <c r="AH17" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2500,6 +2553,9 @@
       <c r="AH18" t="n">
         <v>0.18</v>
       </c>
+      <c r="AI18" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2610,6 +2666,9 @@
       <c r="AH19" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2720,6 +2779,9 @@
       <c r="AH20" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2830,6 +2892,9 @@
       <c r="AH21" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2940,6 +3005,9 @@
       <c r="AH22" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3050,6 +3118,9 @@
       <c r="AH23" t="n">
         <v>0.21</v>
       </c>
+      <c r="AI23" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3160,6 +3231,9 @@
       <c r="AH24" t="n">
         <v>0.37</v>
       </c>
+      <c r="AI24" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3270,6 +3344,9 @@
       <c r="AH25" t="n">
         <v>0.39</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3380,6 +3457,9 @@
       <c r="AH26" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3490,6 +3570,9 @@
       <c r="AH27" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3600,6 +3683,9 @@
       <c r="AH28" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3710,6 +3796,9 @@
       <c r="AH29" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI29" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3820,6 +3909,9 @@
       <c r="AH30" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3930,6 +4022,9 @@
       <c r="AH31" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI31" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4040,6 +4135,9 @@
       <c r="AH32" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4150,6 +4248,9 @@
       <c r="AH33" t="n">
         <v>0.17</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4260,6 +4361,9 @@
       <c r="AH34" t="n">
         <v>0.23</v>
       </c>
+      <c r="AI34" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4370,6 +4474,9 @@
       <c r="AH35" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4480,6 +4587,9 @@
       <c r="AH36" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4590,6 +4700,9 @@
       <c r="AH37" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4700,6 +4813,9 @@
       <c r="AH38" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4810,6 +4926,9 @@
       <c r="AH39" t="n">
         <v>0.17</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4920,6 +5039,9 @@
       <c r="AH40" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5030,6 +5152,9 @@
       <c r="AH41" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5140,6 +5265,9 @@
       <c r="AH42" t="n">
         <v>0.1</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5250,6 +5378,9 @@
       <c r="AH43" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5360,6 +5491,9 @@
       <c r="AH44" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5470,11 +5604,14 @@
       <c r="AH45" t="n">
         <v>0.25</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5663,6 +5800,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5768,6 +5910,9 @@
       <c r="AG2" t="n">
         <v>1855</v>
       </c>
+      <c r="AH2" t="n">
+        <v>1836</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5873,6 +6018,9 @@
       <c r="AG3" t="n">
         <v>165</v>
       </c>
+      <c r="AH3" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5978,6 +6126,9 @@
       <c r="AG4" t="n">
         <v>370</v>
       </c>
+      <c r="AH4" t="n">
+        <v>352</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6083,6 +6234,9 @@
       <c r="AG5" t="n">
         <v>1320</v>
       </c>
+      <c r="AH5" t="n">
+        <v>1297</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6188,6 +6342,9 @@
       <c r="AG6" t="n">
         <v>888</v>
       </c>
+      <c r="AH6" t="n">
+        <v>887</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6293,6 +6450,9 @@
       <c r="AG7" t="n">
         <v>165</v>
       </c>
+      <c r="AH7" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6398,6 +6558,9 @@
       <c r="AG8" t="n">
         <v>531</v>
       </c>
+      <c r="AH8" t="n">
+        <v>525</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6503,6 +6666,9 @@
       <c r="AG9" t="n">
         <v>271</v>
       </c>
+      <c r="AH9" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6608,6 +6774,9 @@
       <c r="AG10" t="n">
         <v>853</v>
       </c>
+      <c r="AH10" t="n">
+        <v>850</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6713,6 +6882,9 @@
       <c r="AG11" t="n">
         <v>154</v>
       </c>
+      <c r="AH11" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6818,6 +6990,9 @@
       <c r="AG12" t="n">
         <v>105</v>
       </c>
+      <c r="AH12" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6923,6 +7098,9 @@
       <c r="AG13" t="n">
         <v>743</v>
       </c>
+      <c r="AH13" t="n">
+        <v>722</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7028,6 +7206,9 @@
       <c r="AG14" t="n">
         <v>859</v>
       </c>
+      <c r="AH14" t="n">
+        <v>850</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7133,6 +7314,9 @@
       <c r="AG15" t="n">
         <v>631</v>
       </c>
+      <c r="AH15" t="n">
+        <v>625</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7238,6 +7422,9 @@
       <c r="AG16" t="n">
         <v>365</v>
       </c>
+      <c r="AH16" t="n">
+        <v>361</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7343,6 +7530,9 @@
       <c r="AG17" t="n">
         <v>180</v>
       </c>
+      <c r="AH17" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7448,6 +7638,9 @@
       <c r="AG18" t="n">
         <v>679</v>
       </c>
+      <c r="AH18" t="n">
+        <v>666</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7553,6 +7746,9 @@
       <c r="AG19" t="n">
         <v>613</v>
       </c>
+      <c r="AH19" t="n">
+        <v>611</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7658,6 +7854,9 @@
       <c r="AG20" t="n">
         <v>255</v>
       </c>
+      <c r="AH20" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7763,6 +7962,9 @@
       <c r="AG21" t="n">
         <v>566</v>
       </c>
+      <c r="AH21" t="n">
+        <v>561</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7868,6 +8070,9 @@
       <c r="AG22" t="n">
         <v>309</v>
       </c>
+      <c r="AH22" t="n">
+        <v>323</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7973,11 +8178,14 @@
       <c r="AG23" t="n">
         <v>168</v>
       </c>
+      <c r="AH23" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -8012,6 +8220,7 @@
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_03_strategie_domacnosti.xlsx
+++ b/ZBP_03_strategie_domacnosti.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI46"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,11 @@
           <t>12. 10. 2021</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>11. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -748,6 +753,9 @@
       <c r="AI2" t="n">
         <v>0.2</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -861,6 +869,9 @@
       <c r="AI3" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -974,6 +985,9 @@
       <c r="AI4" t="n">
         <v>0.41</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1087,6 +1101,9 @@
       <c r="AI5" t="n">
         <v>0.25</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1200,6 +1217,9 @@
       <c r="AI6" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1313,6 +1333,9 @@
       <c r="AI7" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1426,6 +1449,9 @@
       <c r="AI8" t="n">
         <v>0.21</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1539,6 +1565,9 @@
       <c r="AI9" t="n">
         <v>0.2</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1652,6 +1681,9 @@
       <c r="AI10" t="n">
         <v>0.21</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1765,6 +1797,9 @@
       <c r="AI11" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1878,6 +1913,9 @@
       <c r="AI12" t="n">
         <v>0.2</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1991,6 +2029,9 @@
       <c r="AI13" t="n">
         <v>0.32</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2104,6 +2145,9 @@
       <c r="AI14" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2217,6 +2261,9 @@
       <c r="AI15" t="n">
         <v>0.18</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2330,6 +2377,9 @@
       <c r="AI16" t="n">
         <v>0.23</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2443,6 +2493,9 @@
       <c r="AI17" t="n">
         <v>0.2</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2556,6 +2609,9 @@
       <c r="AI18" t="n">
         <v>0.24</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2669,6 +2725,9 @@
       <c r="AI19" t="n">
         <v>0.24</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2782,6 +2841,9 @@
       <c r="AI20" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2895,6 +2957,9 @@
       <c r="AI21" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3008,6 +3073,9 @@
       <c r="AI22" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3121,6 +3189,9 @@
       <c r="AI23" t="n">
         <v>0.22</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3234,6 +3305,9 @@
       <c r="AI24" t="n">
         <v>0.41</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3347,6 +3421,9 @@
       <c r="AI25" t="n">
         <v>0.39</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3460,6 +3537,9 @@
       <c r="AI26" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3573,6 +3653,9 @@
       <c r="AI27" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3686,6 +3769,9 @@
       <c r="AI28" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3799,6 +3885,9 @@
       <c r="AI29" t="n">
         <v>0.22</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3912,6 +4001,9 @@
       <c r="AI30" t="n">
         <v>0.08</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4025,6 +4117,9 @@
       <c r="AI31" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4138,6 +4233,9 @@
       <c r="AI32" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4251,6 +4349,9 @@
       <c r="AI33" t="n">
         <v>0.22</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4364,6 +4465,9 @@
       <c r="AI34" t="n">
         <v>0.18</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4477,6 +4581,9 @@
       <c r="AI35" t="n">
         <v>0.08</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4590,6 +4697,9 @@
       <c r="AI36" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4703,6 +4813,9 @@
       <c r="AI37" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4816,6 +4929,9 @@
       <c r="AI38" t="n">
         <v>0.08</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4929,6 +5045,9 @@
       <c r="AI39" t="n">
         <v>0.27</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5042,6 +5161,9 @@
       <c r="AI40" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5155,6 +5277,9 @@
       <c r="AI41" t="n">
         <v>0.08</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5268,6 +5393,9 @@
       <c r="AI42" t="n">
         <v>0.08</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5381,6 +5509,9 @@
       <c r="AI43" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5494,6 +5625,9 @@
       <c r="AI44" t="n">
         <v>0.18</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5607,11 +5741,14 @@
       <c r="AI45" t="n">
         <v>0.31</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 20. 10. 2021</t>
+          <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 18. 11. 2021</t>
         </is>
       </c>
     </row>
@@ -5626,7 +5763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5805,6 +5942,11 @@
           <t>12. 10. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>11. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5913,6 +6055,9 @@
       <c r="AH2" t="n">
         <v>1836</v>
       </c>
+      <c r="AI2" t="n">
+        <v>1709</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6021,6 +6166,9 @@
       <c r="AH3" t="n">
         <v>187</v>
       </c>
+      <c r="AI3" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6129,6 +6277,9 @@
       <c r="AH4" t="n">
         <v>352</v>
       </c>
+      <c r="AI4" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6237,6 +6388,9 @@
       <c r="AH5" t="n">
         <v>1297</v>
       </c>
+      <c r="AI5" t="n">
+        <v>1177</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6345,6 +6499,9 @@
       <c r="AH6" t="n">
         <v>887</v>
       </c>
+      <c r="AI6" t="n">
+        <v>820</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6453,6 +6610,9 @@
       <c r="AH7" t="n">
         <v>163</v>
       </c>
+      <c r="AI7" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6561,6 +6721,9 @@
       <c r="AH8" t="n">
         <v>525</v>
       </c>
+      <c r="AI8" t="n">
+        <v>489</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6669,6 +6832,9 @@
       <c r="AH9" t="n">
         <v>261</v>
       </c>
+      <c r="AI9" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6777,6 +6943,9 @@
       <c r="AH10" t="n">
         <v>850</v>
       </c>
+      <c r="AI10" t="n">
+        <v>783</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6885,6 +7054,9 @@
       <c r="AH11" t="n">
         <v>153</v>
       </c>
+      <c r="AI11" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6993,6 +7165,9 @@
       <c r="AH12" t="n">
         <v>111</v>
       </c>
+      <c r="AI12" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7101,6 +7276,9 @@
       <c r="AH13" t="n">
         <v>722</v>
       </c>
+      <c r="AI13" t="n">
+        <v>683</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7209,6 +7387,9 @@
       <c r="AH14" t="n">
         <v>850</v>
       </c>
+      <c r="AI14" t="n">
+        <v>788</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7317,6 +7498,9 @@
       <c r="AH15" t="n">
         <v>625</v>
       </c>
+      <c r="AI15" t="n">
+        <v>590</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7425,6 +7609,9 @@
       <c r="AH16" t="n">
         <v>361</v>
       </c>
+      <c r="AI16" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7533,6 +7720,9 @@
       <c r="AH17" t="n">
         <v>193</v>
       </c>
+      <c r="AI17" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7641,6 +7831,9 @@
       <c r="AH18" t="n">
         <v>666</v>
       </c>
+      <c r="AI18" t="n">
+        <v>618</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7749,6 +7942,9 @@
       <c r="AH19" t="n">
         <v>611</v>
       </c>
+      <c r="AI19" t="n">
+        <v>536</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7857,6 +8053,9 @@
       <c r="AH20" t="n">
         <v>245</v>
       </c>
+      <c r="AI20" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7965,6 +8164,9 @@
       <c r="AH21" t="n">
         <v>561</v>
       </c>
+      <c r="AI21" t="n">
+        <v>506</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8073,6 +8275,9 @@
       <c r="AH22" t="n">
         <v>323</v>
       </c>
+      <c r="AI22" t="n">
+        <v>294</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8181,11 +8386,14 @@
       <c r="AH23" t="n">
         <v>157</v>
       </c>
+      <c r="AI23" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
+          <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 18. 11. 2021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -8221,6 +8429,7 @@
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_03_strategie_domacnosti.xlsx
+++ b/ZBP_03_strategie_domacnosti.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AK46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,6 +640,11 @@
           <t>11. 11. 2021</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>30. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -756,6 +761,9 @@
       <c r="AJ2" t="n">
         <v>0.22</v>
       </c>
+      <c r="AK2" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -872,6 +880,9 @@
       <c r="AJ3" t="n">
         <v>0.12</v>
       </c>
+      <c r="AK3" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -988,6 +999,9 @@
       <c r="AJ4" t="n">
         <v>0.46</v>
       </c>
+      <c r="AK4" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1104,6 +1118,9 @@
       <c r="AJ5" t="n">
         <v>0.29</v>
       </c>
+      <c r="AK5" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1220,6 +1237,9 @@
       <c r="AJ6" t="n">
         <v>0.17</v>
       </c>
+      <c r="AK6" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1336,6 +1356,9 @@
       <c r="AJ7" t="n">
         <v>0.22</v>
       </c>
+      <c r="AK7" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1452,6 +1475,9 @@
       <c r="AJ8" t="n">
         <v>0.24</v>
       </c>
+      <c r="AK8" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1568,6 +1594,9 @@
       <c r="AJ9" t="n">
         <v>0.23</v>
       </c>
+      <c r="AK9" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1684,6 +1713,9 @@
       <c r="AJ10" t="n">
         <v>0.2</v>
       </c>
+      <c r="AK10" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1800,6 +1832,9 @@
       <c r="AJ11" t="n">
         <v>0.21</v>
       </c>
+      <c r="AK11" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1916,6 +1951,9 @@
       <c r="AJ12" t="n">
         <v>0.23</v>
       </c>
+      <c r="AK12" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2032,6 +2070,9 @@
       <c r="AJ13" t="n">
         <v>0.45</v>
       </c>
+      <c r="AK13" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2148,6 +2189,9 @@
       <c r="AJ14" t="n">
         <v>0.2</v>
       </c>
+      <c r="AK14" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2264,6 +2308,9 @@
       <c r="AJ15" t="n">
         <v>0.22</v>
       </c>
+      <c r="AK15" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2380,6 +2427,9 @@
       <c r="AJ16" t="n">
         <v>0.23</v>
       </c>
+      <c r="AK16" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2496,6 +2546,9 @@
       <c r="AJ17" t="n">
         <v>0.21</v>
       </c>
+      <c r="AK17" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2612,6 +2665,9 @@
       <c r="AJ18" t="n">
         <v>0.2</v>
       </c>
+      <c r="AK18" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2728,6 +2784,9 @@
       <c r="AJ19" t="n">
         <v>0.28</v>
       </c>
+      <c r="AK19" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2842,7 +2901,10 @@
         <v>0.19</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="21">
@@ -2960,6 +3022,9 @@
       <c r="AJ21" t="n">
         <v>0.14</v>
       </c>
+      <c r="AK21" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3076,6 +3141,9 @@
       <c r="AJ22" t="n">
         <v>0.16</v>
       </c>
+      <c r="AK22" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3192,6 +3260,9 @@
       <c r="AJ23" t="n">
         <v>0.23</v>
       </c>
+      <c r="AK23" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3308,6 +3379,9 @@
       <c r="AJ24" t="n">
         <v>0.44</v>
       </c>
+      <c r="AK24" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3424,6 +3498,9 @@
       <c r="AJ25" t="n">
         <v>0.39</v>
       </c>
+      <c r="AK25" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3540,6 +3617,9 @@
       <c r="AJ26" t="n">
         <v>0.11</v>
       </c>
+      <c r="AK26" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3656,6 +3736,9 @@
       <c r="AJ27" t="n">
         <v>0.09</v>
       </c>
+      <c r="AK27" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3772,6 +3855,9 @@
       <c r="AJ28" t="n">
         <v>0.12</v>
       </c>
+      <c r="AK28" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3888,6 +3974,9 @@
       <c r="AJ29" t="n">
         <v>0.19</v>
       </c>
+      <c r="AK29" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4004,6 +4093,9 @@
       <c r="AJ30" t="n">
         <v>0.11</v>
       </c>
+      <c r="AK30" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4120,6 +4212,9 @@
       <c r="AJ31" t="n">
         <v>0.1</v>
       </c>
+      <c r="AK31" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4236,6 +4331,9 @@
       <c r="AJ32" t="n">
         <v>0.12</v>
       </c>
+      <c r="AK32" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4352,6 +4450,9 @@
       <c r="AJ33" t="n">
         <v>0.18</v>
       </c>
+      <c r="AK33" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4468,6 +4569,9 @@
       <c r="AJ34" t="n">
         <v>0.18</v>
       </c>
+      <c r="AK34" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4584,6 +4688,9 @@
       <c r="AJ35" t="n">
         <v>0.1</v>
       </c>
+      <c r="AK35" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4700,6 +4807,9 @@
       <c r="AJ36" t="n">
         <v>0.13</v>
       </c>
+      <c r="AK36" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4816,6 +4926,9 @@
       <c r="AJ37" t="n">
         <v>0.13</v>
       </c>
+      <c r="AK37" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4932,6 +5045,9 @@
       <c r="AJ38" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AK38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5048,6 +5164,9 @@
       <c r="AJ39" t="n">
         <v>0.18</v>
       </c>
+      <c r="AK39" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5162,7 +5281,10 @@
         <v>0.13</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="41">
@@ -5280,6 +5402,9 @@
       <c r="AJ41" t="n">
         <v>0.11</v>
       </c>
+      <c r="AK41" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5396,6 +5521,9 @@
       <c r="AJ42" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AK42" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5512,6 +5640,9 @@
       <c r="AJ43" t="n">
         <v>0.06</v>
       </c>
+      <c r="AK43" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5628,6 +5759,9 @@
       <c r="AJ44" t="n">
         <v>0.19</v>
       </c>
+      <c r="AK44" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5744,11 +5878,14 @@
       <c r="AJ45" t="n">
         <v>0.27</v>
       </c>
+      <c r="AK45" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 18. 11. 2021</t>
+          <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 8. 12. 2021</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI24"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5947,6 +6084,11 @@
           <t>11. 11. 2021</t>
         </is>
       </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>30. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6058,6 +6200,9 @@
       <c r="AI2" t="n">
         <v>1709</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>1790</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6167,7 +6312,10 @@
         <v>187</v>
       </c>
       <c r="AI3" t="n">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="4">
@@ -6278,7 +6426,10 @@
         <v>352</v>
       </c>
       <c r="AI4" t="n">
-        <v>365</v>
+        <v>366</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="5">
@@ -6391,6 +6542,9 @@
       <c r="AI5" t="n">
         <v>1177</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>1246</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6502,6 +6656,9 @@
       <c r="AI6" t="n">
         <v>820</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>865</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6613,6 +6770,9 @@
       <c r="AI7" t="n">
         <v>152</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6724,6 +6884,9 @@
       <c r="AI8" t="n">
         <v>489</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>512</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6835,6 +6998,9 @@
       <c r="AI9" t="n">
         <v>248</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6946,6 +7112,9 @@
       <c r="AI10" t="n">
         <v>783</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>829</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7057,6 +7226,9 @@
       <c r="AI11" t="n">
         <v>140</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7168,6 +7340,9 @@
       <c r="AI12" t="n">
         <v>103</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7279,6 +7454,9 @@
       <c r="AI13" t="n">
         <v>683</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>704</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7390,6 +7568,9 @@
       <c r="AI14" t="n">
         <v>788</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>829</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7501,6 +7682,9 @@
       <c r="AI15" t="n">
         <v>590</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>608</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7612,6 +7796,9 @@
       <c r="AI16" t="n">
         <v>331</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7721,7 +7908,10 @@
         <v>193</v>
       </c>
       <c r="AI17" t="n">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="18">
@@ -7832,7 +8022,10 @@
         <v>666</v>
       </c>
       <c r="AI18" t="n">
-        <v>618</v>
+        <v>621</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>633</v>
       </c>
     </row>
     <row r="19">
@@ -7943,7 +8136,10 @@
         <v>611</v>
       </c>
       <c r="AI19" t="n">
-        <v>536</v>
+        <v>537</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>585</v>
       </c>
     </row>
     <row r="20">
@@ -8054,7 +8250,10 @@
         <v>245</v>
       </c>
       <c r="AI20" t="n">
-        <v>250</v>
+        <v>252</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>266</v>
       </c>
     </row>
     <row r="21">
@@ -8167,6 +8366,9 @@
       <c r="AI21" t="n">
         <v>506</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>521</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8278,6 +8480,9 @@
       <c r="AI22" t="n">
         <v>294</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>320</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8389,11 +8594,14 @@
       <c r="AI23" t="n">
         <v>155</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 18. 11. 2021</t>
+          <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 8. 12. 2021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -8430,6 +8638,7 @@
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_03_strategie_domacnosti.xlsx
+++ b/ZBP_03_strategie_domacnosti.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK46"/>
+  <dimension ref="A1:AL46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,11 @@
           <t>30. 11. 2021</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>28. 12. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -764,6 +769,9 @@
       <c r="AK2" t="n">
         <v>0.22</v>
       </c>
+      <c r="AL2" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -883,6 +891,9 @@
       <c r="AK3" t="n">
         <v>0.13</v>
       </c>
+      <c r="AL3" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1002,6 +1013,9 @@
       <c r="AK4" t="n">
         <v>0.46</v>
       </c>
+      <c r="AL4" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1121,6 +1135,9 @@
       <c r="AK5" t="n">
         <v>0.31</v>
       </c>
+      <c r="AL5" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1240,6 +1257,9 @@
       <c r="AK6" t="n">
         <v>0.15</v>
       </c>
+      <c r="AL6" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1359,6 +1379,9 @@
       <c r="AK7" t="n">
         <v>0.2</v>
       </c>
+      <c r="AL7" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1478,6 +1501,9 @@
       <c r="AK8" t="n">
         <v>0.31</v>
       </c>
+      <c r="AL8" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1597,6 +1623,9 @@
       <c r="AK9" t="n">
         <v>0.23</v>
       </c>
+      <c r="AL9" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1716,6 +1745,9 @@
       <c r="AK10" t="n">
         <v>0.2</v>
       </c>
+      <c r="AL10" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1835,6 +1867,9 @@
       <c r="AK11" t="n">
         <v>0.2</v>
       </c>
+      <c r="AL11" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1954,6 +1989,9 @@
       <c r="AK12" t="n">
         <v>0.27</v>
       </c>
+      <c r="AL12" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2073,6 +2111,9 @@
       <c r="AK13" t="n">
         <v>0.44</v>
       </c>
+      <c r="AL13" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2192,6 +2233,9 @@
       <c r="AK14" t="n">
         <v>0.2</v>
       </c>
+      <c r="AL14" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2311,6 +2355,9 @@
       <c r="AK15" t="n">
         <v>0.21</v>
       </c>
+      <c r="AL15" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2430,6 +2477,9 @@
       <c r="AK16" t="n">
         <v>0.25</v>
       </c>
+      <c r="AL16" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2549,6 +2599,9 @@
       <c r="AK17" t="n">
         <v>0.19</v>
       </c>
+      <c r="AL17" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2668,6 +2721,9 @@
       <c r="AK18" t="n">
         <v>0.23</v>
       </c>
+      <c r="AL18" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2787,6 +2843,9 @@
       <c r="AK19" t="n">
         <v>0.28</v>
       </c>
+      <c r="AL19" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2906,6 +2965,9 @@
       <c r="AK20" t="n">
         <v>0.19</v>
       </c>
+      <c r="AL20" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3025,6 +3087,9 @@
       <c r="AK21" t="n">
         <v>0.16</v>
       </c>
+      <c r="AL21" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3144,6 +3209,9 @@
       <c r="AK22" t="n">
         <v>0.18</v>
       </c>
+      <c r="AL22" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3263,6 +3331,9 @@
       <c r="AK23" t="n">
         <v>0.2</v>
       </c>
+      <c r="AL23" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3382,6 +3453,9 @@
       <c r="AK24" t="n">
         <v>0.38</v>
       </c>
+      <c r="AL24" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3501,6 +3575,9 @@
       <c r="AK25" t="n">
         <v>0.44</v>
       </c>
+      <c r="AL25" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3620,6 +3697,9 @@
       <c r="AK26" t="n">
         <v>0.13</v>
       </c>
+      <c r="AL26" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3739,6 +3819,9 @@
       <c r="AK27" t="n">
         <v>0.09</v>
       </c>
+      <c r="AL27" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3858,6 +3941,9 @@
       <c r="AK28" t="n">
         <v>0.14</v>
       </c>
+      <c r="AL28" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3977,6 +4063,9 @@
       <c r="AK29" t="n">
         <v>0.18</v>
       </c>
+      <c r="AL29" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4096,6 +4185,9 @@
       <c r="AK30" t="n">
         <v>0.11</v>
       </c>
+      <c r="AL30" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4215,6 +4307,9 @@
       <c r="AK31" t="n">
         <v>0.12</v>
       </c>
+      <c r="AL31" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4334,6 +4429,9 @@
       <c r="AK32" t="n">
         <v>0.14</v>
       </c>
+      <c r="AL32" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4453,6 +4551,9 @@
       <c r="AK33" t="n">
         <v>0.16</v>
       </c>
+      <c r="AL33" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4572,6 +4673,9 @@
       <c r="AK34" t="n">
         <v>0.22</v>
       </c>
+      <c r="AL34" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4691,6 +4795,9 @@
       <c r="AK35" t="n">
         <v>0.11</v>
       </c>
+      <c r="AL35" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4810,6 +4917,9 @@
       <c r="AK36" t="n">
         <v>0.16</v>
       </c>
+      <c r="AL36" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4929,6 +5039,9 @@
       <c r="AK37" t="n">
         <v>0.13</v>
       </c>
+      <c r="AL37" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5048,6 +5161,9 @@
       <c r="AK38" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AL38" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5167,6 +5283,9 @@
       <c r="AK39" t="n">
         <v>0.21</v>
       </c>
+      <c r="AL39" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5286,6 +5405,9 @@
       <c r="AK40" t="n">
         <v>0.15</v>
       </c>
+      <c r="AL40" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5405,6 +5527,9 @@
       <c r="AK41" t="n">
         <v>0.12</v>
       </c>
+      <c r="AL41" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5524,6 +5649,9 @@
       <c r="AK42" t="n">
         <v>0.1</v>
       </c>
+      <c r="AL42" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5643,6 +5771,9 @@
       <c r="AK43" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AL43" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5762,6 +5893,9 @@
       <c r="AK44" t="n">
         <v>0.18</v>
       </c>
+      <c r="AL44" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5881,11 +6015,14 @@
       <c r="AK45" t="n">
         <v>0.28</v>
       </c>
+      <c r="AL45" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 8. 12. 2021</t>
+          <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
         </is>
       </c>
     </row>
@@ -5900,7 +6037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AK24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6089,6 +6226,11 @@
           <t>30. 11. 2021</t>
         </is>
       </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>28. 12. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6203,6 +6345,9 @@
       <c r="AJ2" t="n">
         <v>1790</v>
       </c>
+      <c r="AK2" t="n">
+        <v>1767</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6317,6 +6462,9 @@
       <c r="AJ3" t="n">
         <v>192</v>
       </c>
+      <c r="AK3" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6431,6 +6579,9 @@
       <c r="AJ4" t="n">
         <v>352</v>
       </c>
+      <c r="AK4" t="n">
+        <v>333</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6545,6 +6696,9 @@
       <c r="AJ5" t="n">
         <v>1246</v>
       </c>
+      <c r="AK5" t="n">
+        <v>1242</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6659,6 +6813,9 @@
       <c r="AJ6" t="n">
         <v>865</v>
       </c>
+      <c r="AK6" t="n">
+        <v>851</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6773,6 +6930,9 @@
       <c r="AJ7" t="n">
         <v>159</v>
       </c>
+      <c r="AK7" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6887,6 +7047,9 @@
       <c r="AJ8" t="n">
         <v>512</v>
       </c>
+      <c r="AK8" t="n">
+        <v>505</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7001,6 +7164,9 @@
       <c r="AJ9" t="n">
         <v>254</v>
       </c>
+      <c r="AK9" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7115,6 +7281,9 @@
       <c r="AJ10" t="n">
         <v>829</v>
       </c>
+      <c r="AK10" t="n">
+        <v>817</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7229,6 +7398,9 @@
       <c r="AJ11" t="n">
         <v>144</v>
       </c>
+      <c r="AK11" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7343,6 +7515,9 @@
       <c r="AJ12" t="n">
         <v>113</v>
       </c>
+      <c r="AK12" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7457,6 +7632,9 @@
       <c r="AJ13" t="n">
         <v>704</v>
       </c>
+      <c r="AK13" t="n">
+        <v>695</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7571,6 +7749,9 @@
       <c r="AJ14" t="n">
         <v>829</v>
       </c>
+      <c r="AK14" t="n">
+        <v>818</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7685,6 +7866,9 @@
       <c r="AJ15" t="n">
         <v>608</v>
       </c>
+      <c r="AK15" t="n">
+        <v>606</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7799,6 +7983,9 @@
       <c r="AJ16" t="n">
         <v>353</v>
       </c>
+      <c r="AK16" t="n">
+        <v>343</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7913,6 +8100,9 @@
       <c r="AJ17" t="n">
         <v>204</v>
       </c>
+      <c r="AK17" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8027,6 +8217,9 @@
       <c r="AJ18" t="n">
         <v>633</v>
       </c>
+      <c r="AK18" t="n">
+        <v>640</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8141,6 +8334,9 @@
       <c r="AJ19" t="n">
         <v>585</v>
       </c>
+      <c r="AK19" t="n">
+        <v>596</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8255,6 +8451,9 @@
       <c r="AJ20" t="n">
         <v>266</v>
       </c>
+      <c r="AK20" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8369,6 +8568,9 @@
       <c r="AJ21" t="n">
         <v>521</v>
       </c>
+      <c r="AK21" t="n">
+        <v>522</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8483,6 +8685,9 @@
       <c r="AJ22" t="n">
         <v>320</v>
       </c>
+      <c r="AK22" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8597,11 +8802,14 @@
       <c r="AJ23" t="n">
         <v>177</v>
       </c>
+      <c r="AK23" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 8. 12. 2021</t>
+          <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -8639,6 +8847,7 @@
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_03_strategie_domacnosti.xlsx
+++ b/ZBP_03_strategie_domacnosti.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL46"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,6 +650,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>25. 1. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -772,6 +777,9 @@
       <c r="AL2" t="n">
         <v>0.2</v>
       </c>
+      <c r="AM2" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -894,6 +902,9 @@
       <c r="AL3" t="n">
         <v>0.13</v>
       </c>
+      <c r="AM3" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1016,6 +1027,9 @@
       <c r="AL4" t="n">
         <v>0.43</v>
       </c>
+      <c r="AM4" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1138,6 +1152,9 @@
       <c r="AL5" t="n">
         <v>0.3</v>
       </c>
+      <c r="AM5" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1260,6 +1277,9 @@
       <c r="AL6" t="n">
         <v>0.14</v>
       </c>
+      <c r="AM6" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1382,6 +1402,9 @@
       <c r="AL7" t="n">
         <v>0.21</v>
       </c>
+      <c r="AM7" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1504,6 +1527,9 @@
       <c r="AL8" t="n">
         <v>0.18</v>
       </c>
+      <c r="AM8" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1626,6 +1652,9 @@
       <c r="AL9" t="n">
         <v>0.19</v>
       </c>
+      <c r="AM9" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1748,6 +1777,9 @@
       <c r="AL10" t="n">
         <v>0.2</v>
       </c>
+      <c r="AM10" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1870,6 +1902,9 @@
       <c r="AL11" t="n">
         <v>0.2</v>
       </c>
+      <c r="AM11" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1992,6 +2027,9 @@
       <c r="AL12" t="n">
         <v>0.15</v>
       </c>
+      <c r="AM12" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2114,6 +2152,9 @@
       <c r="AL13" t="n">
         <v>0.32</v>
       </c>
+      <c r="AM13" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2236,6 +2277,9 @@
       <c r="AL14" t="n">
         <v>0.19</v>
       </c>
+      <c r="AM14" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2358,6 +2402,9 @@
       <c r="AL15" t="n">
         <v>0.2</v>
       </c>
+      <c r="AM15" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2480,6 +2527,9 @@
       <c r="AL16" t="n">
         <v>0.22</v>
       </c>
+      <c r="AM16" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2602,6 +2652,9 @@
       <c r="AL17" t="n">
         <v>0.17</v>
       </c>
+      <c r="AM17" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2724,6 +2777,9 @@
       <c r="AL18" t="n">
         <v>0.26</v>
       </c>
+      <c r="AM18" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2846,6 +2902,9 @@
       <c r="AL19" t="n">
         <v>0.25</v>
       </c>
+      <c r="AM19" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2968,6 +3027,9 @@
       <c r="AL20" t="n">
         <v>0.18</v>
       </c>
+      <c r="AM20" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3090,6 +3152,9 @@
       <c r="AL21" t="n">
         <v>0.11</v>
       </c>
+      <c r="AM21" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3212,6 +3277,9 @@
       <c r="AL22" t="n">
         <v>0.15</v>
       </c>
+      <c r="AM22" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3334,6 +3402,9 @@
       <c r="AL23" t="n">
         <v>0.16</v>
       </c>
+      <c r="AM23" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3456,6 +3527,9 @@
       <c r="AL24" t="n">
         <v>0.46</v>
       </c>
+      <c r="AM24" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3578,6 +3652,9 @@
       <c r="AL25" t="n">
         <v>0.42</v>
       </c>
+      <c r="AM25" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3700,6 +3777,9 @@
       <c r="AL26" t="n">
         <v>0.14</v>
       </c>
+      <c r="AM26" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3822,6 +3902,9 @@
       <c r="AL27" t="n">
         <v>0.08</v>
       </c>
+      <c r="AM27" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3944,6 +4027,9 @@
       <c r="AL28" t="n">
         <v>0.14</v>
       </c>
+      <c r="AM28" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4066,6 +4152,9 @@
       <c r="AL29" t="n">
         <v>0.12</v>
       </c>
+      <c r="AM29" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4188,6 +4277,9 @@
       <c r="AL30" t="n">
         <v>0.12</v>
       </c>
+      <c r="AM30" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4310,6 +4402,9 @@
       <c r="AL31" t="n">
         <v>0.11</v>
       </c>
+      <c r="AM31" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4432,6 +4527,9 @@
       <c r="AL32" t="n">
         <v>0.13</v>
       </c>
+      <c r="AM32" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4554,6 +4652,9 @@
       <c r="AL33" t="n">
         <v>0.12</v>
       </c>
+      <c r="AM33" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4676,6 +4777,9 @@
       <c r="AL34" t="n">
         <v>0.19</v>
       </c>
+      <c r="AM34" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4798,6 +4902,9 @@
       <c r="AL35" t="n">
         <v>0.11</v>
       </c>
+      <c r="AM35" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4920,6 +5027,9 @@
       <c r="AL36" t="n">
         <v>0.16</v>
       </c>
+      <c r="AM36" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5042,6 +5152,9 @@
       <c r="AL37" t="n">
         <v>0.12</v>
       </c>
+      <c r="AM37" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5164,6 +5277,9 @@
       <c r="AL38" t="n">
         <v>0.06</v>
       </c>
+      <c r="AM38" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5286,6 +5402,9 @@
       <c r="AL39" t="n">
         <v>0.26</v>
       </c>
+      <c r="AM39" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5408,6 +5527,9 @@
       <c r="AL40" t="n">
         <v>0.14</v>
       </c>
+      <c r="AM40" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5530,6 +5652,9 @@
       <c r="AL41" t="n">
         <v>0.11</v>
       </c>
+      <c r="AM41" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5652,6 +5777,9 @@
       <c r="AL42" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM42" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5774,6 +5902,9 @@
       <c r="AL43" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AM43" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5896,6 +6027,9 @@
       <c r="AL44" t="n">
         <v>0.16</v>
       </c>
+      <c r="AM44" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6018,11 +6152,14 @@
       <c r="AL45" t="n">
         <v>0.27</v>
       </c>
+      <c r="AM45" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -6037,7 +6174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK24"/>
+  <dimension ref="A1:AL24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6231,6 +6368,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>25. 1. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6348,6 +6490,9 @@
       <c r="AK2" t="n">
         <v>1767</v>
       </c>
+      <c r="AL2" t="n">
+        <v>1815</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6465,6 +6610,9 @@
       <c r="AK3" t="n">
         <v>192</v>
       </c>
+      <c r="AL3" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6582,6 +6730,9 @@
       <c r="AK4" t="n">
         <v>333</v>
       </c>
+      <c r="AL4" t="n">
+        <v>324</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6699,6 +6850,9 @@
       <c r="AK5" t="n">
         <v>1242</v>
       </c>
+      <c r="AL5" t="n">
+        <v>1305</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6816,6 +6970,9 @@
       <c r="AK6" t="n">
         <v>851</v>
       </c>
+      <c r="AL6" t="n">
+        <v>869</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6933,6 +7090,9 @@
       <c r="AK7" t="n">
         <v>157</v>
       </c>
+      <c r="AL7" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7050,6 +7210,9 @@
       <c r="AK8" t="n">
         <v>505</v>
       </c>
+      <c r="AL8" t="n">
+        <v>519</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7167,6 +7330,9 @@
       <c r="AK9" t="n">
         <v>254</v>
       </c>
+      <c r="AL9" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7284,6 +7450,9 @@
       <c r="AK10" t="n">
         <v>817</v>
       </c>
+      <c r="AL10" t="n">
+        <v>834</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7401,6 +7570,9 @@
       <c r="AK11" t="n">
         <v>143</v>
       </c>
+      <c r="AL11" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7518,6 +7690,9 @@
       <c r="AK12" t="n">
         <v>112</v>
       </c>
+      <c r="AL12" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7635,6 +7810,9 @@
       <c r="AK13" t="n">
         <v>695</v>
       </c>
+      <c r="AL13" t="n">
+        <v>721</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7752,6 +7930,9 @@
       <c r="AK14" t="n">
         <v>818</v>
       </c>
+      <c r="AL14" t="n">
+        <v>838</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7869,6 +8050,9 @@
       <c r="AK15" t="n">
         <v>606</v>
       </c>
+      <c r="AL15" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7986,6 +8170,9 @@
       <c r="AK16" t="n">
         <v>343</v>
       </c>
+      <c r="AL16" t="n">
+        <v>358</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8103,6 +8290,9 @@
       <c r="AK17" t="n">
         <v>190</v>
       </c>
+      <c r="AL17" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8220,6 +8410,9 @@
       <c r="AK18" t="n">
         <v>640</v>
       </c>
+      <c r="AL18" t="n">
+        <v>630</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8337,6 +8530,9 @@
       <c r="AK19" t="n">
         <v>596</v>
       </c>
+      <c r="AL19" t="n">
+        <v>605</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8454,6 +8650,9 @@
       <c r="AK20" t="n">
         <v>244</v>
       </c>
+      <c r="AL20" t="n">
+        <v>302</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8571,6 +8770,9 @@
       <c r="AK21" t="n">
         <v>522</v>
       </c>
+      <c r="AL21" t="n">
+        <v>537</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8688,6 +8890,9 @@
       <c r="AK22" t="n">
         <v>290</v>
       </c>
+      <c r="AL22" t="n">
+        <v>318</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8805,11 +9010,14 @@
       <c r="AK23" t="n">
         <v>182</v>
       </c>
+      <c r="AL23" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -8848,6 +9056,7 @@
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_03_strategie_domacnosti.xlsx
+++ b/ZBP_03_strategie_domacnosti.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AN46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,7 +652,12 @@
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>25. 1. 2021</t>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -778,7 +783,10 @@
         <v>0.2</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
@@ -905,6 +913,9 @@
       <c r="AM3" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1028,7 +1039,10 @@
         <v>0.43</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="5">
@@ -1153,7 +1167,10 @@
         <v>0.3</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
@@ -1280,6 +1297,9 @@
       <c r="AM6" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN6" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1405,6 +1425,9 @@
       <c r="AM7" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN7" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1530,6 +1553,9 @@
       <c r="AM8" t="n">
         <v>0.27</v>
       </c>
+      <c r="AN8" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1655,6 +1681,9 @@
       <c r="AM9" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN9" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1780,6 +1809,9 @@
       <c r="AM10" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1905,6 +1937,9 @@
       <c r="AM11" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN11" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2028,7 +2063,10 @@
         <v>0.15</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="13">
@@ -2153,7 +2191,10 @@
         <v>0.32</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="14">
@@ -2280,6 +2321,9 @@
       <c r="AM14" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN14" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2403,6 +2447,9 @@
         <v>0.2</v>
       </c>
       <c r="AM15" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AN15" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2530,6 +2577,9 @@
       <c r="AM16" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2655,6 +2705,9 @@
       <c r="AM17" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2778,7 +2831,10 @@
         <v>0.26</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="19">
@@ -2905,6 +2961,9 @@
       <c r="AM19" t="n">
         <v>0.29</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3030,6 +3089,9 @@
       <c r="AM20" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3155,6 +3217,9 @@
       <c r="AM21" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN21" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3280,6 +3345,9 @@
       <c r="AM22" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN22" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3405,6 +3473,9 @@
       <c r="AM23" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN23" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3530,6 +3601,9 @@
       <c r="AM24" t="n">
         <v>0.44</v>
       </c>
+      <c r="AN24" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3653,7 +3727,10 @@
         <v>0.42</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="26">
@@ -3780,6 +3857,9 @@
       <c r="AM26" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3905,6 +3985,9 @@
       <c r="AM27" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN27" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4028,7 +4111,10 @@
         <v>0.14</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="29">
@@ -4155,6 +4241,9 @@
       <c r="AM29" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN29" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4280,6 +4369,9 @@
       <c r="AM30" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4405,6 +4497,9 @@
       <c r="AM31" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN31" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4530,6 +4625,9 @@
       <c r="AM32" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN32" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4653,7 +4751,10 @@
         <v>0.12</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="34">
@@ -4778,7 +4879,10 @@
         <v>0.19</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="35">
@@ -4905,6 +5009,9 @@
       <c r="AM35" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN35" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5028,7 +5135,10 @@
         <v>0.16</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="37">
@@ -5153,6 +5263,9 @@
         <v>0.12</v>
       </c>
       <c r="AM37" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AN37" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -5280,6 +5393,9 @@
       <c r="AM38" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5405,6 +5521,9 @@
       <c r="AM39" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5528,7 +5647,10 @@
         <v>0.14</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="41">
@@ -5653,7 +5775,10 @@
         <v>0.11</v>
       </c>
       <c r="AM41" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="42">
@@ -5780,6 +5905,9 @@
       <c r="AM42" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN42" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5905,6 +6033,9 @@
       <c r="AM43" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN43" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6028,7 +6159,10 @@
         <v>0.16</v>
       </c>
       <c r="AM44" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="45">
@@ -6153,13 +6287,16 @@
         <v>0.27</v>
       </c>
       <c r="AM45" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Strategie domácností, % respondentů celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
     </row>
@@ -6174,7 +6311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL24"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6370,7 +6507,12 @@
       </c>
       <c r="AL1" s="2" t="inlineStr">
         <is>
-          <t>25. 1. 2021</t>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -6491,7 +6633,10 @@
         <v>1767</v>
       </c>
       <c r="AL2" t="n">
-        <v>1815</v>
+        <v>1848</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1786</v>
       </c>
     </row>
     <row r="3">
@@ -6611,7 +6756,10 @@
         <v>192</v>
       </c>
       <c r="AL3" t="n">
-        <v>186</v>
+        <v>190</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="4">
@@ -6731,7 +6879,10 @@
         <v>333</v>
       </c>
       <c r="AL4" t="n">
-        <v>324</v>
+        <v>334</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>348</v>
       </c>
     </row>
     <row r="5">
@@ -6851,7 +7002,10 @@
         <v>1242</v>
       </c>
       <c r="AL5" t="n">
-        <v>1305</v>
+        <v>1324</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1268</v>
       </c>
     </row>
     <row r="6">
@@ -6971,7 +7125,10 @@
         <v>851</v>
       </c>
       <c r="AL6" t="n">
-        <v>869</v>
+        <v>884</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>860</v>
       </c>
     </row>
     <row r="7">
@@ -7091,7 +7248,10 @@
         <v>157</v>
       </c>
       <c r="AL7" t="n">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="8">
@@ -7211,7 +7371,10 @@
         <v>505</v>
       </c>
       <c r="AL8" t="n">
-        <v>519</v>
+        <v>529</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>511</v>
       </c>
     </row>
     <row r="9">
@@ -7331,7 +7494,10 @@
         <v>254</v>
       </c>
       <c r="AL9" t="n">
-        <v>265</v>
+        <v>271</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="10">
@@ -7451,7 +7617,10 @@
         <v>817</v>
       </c>
       <c r="AL10" t="n">
-        <v>834</v>
+        <v>846</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>820</v>
       </c>
     </row>
     <row r="11">
@@ -7571,7 +7740,10 @@
         <v>143</v>
       </c>
       <c r="AL11" t="n">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="12">
@@ -7691,7 +7863,10 @@
         <v>112</v>
       </c>
       <c r="AL12" t="n">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="13">
@@ -7811,7 +7986,10 @@
         <v>695</v>
       </c>
       <c r="AL13" t="n">
-        <v>721</v>
+        <v>736</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>711</v>
       </c>
     </row>
     <row r="14">
@@ -7931,7 +8109,10 @@
         <v>818</v>
       </c>
       <c r="AL14" t="n">
-        <v>838</v>
+        <v>848</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>827</v>
       </c>
     </row>
     <row r="15">
@@ -8051,7 +8232,10 @@
         <v>606</v>
       </c>
       <c r="AL15" t="n">
-        <v>619</v>
+        <v>637</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>610</v>
       </c>
     </row>
     <row r="16">
@@ -8171,7 +8355,10 @@
         <v>343</v>
       </c>
       <c r="AL16" t="n">
-        <v>358</v>
+        <v>363</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>349</v>
       </c>
     </row>
     <row r="17">
@@ -8291,7 +8478,10 @@
         <v>190</v>
       </c>
       <c r="AL17" t="n">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="18">
@@ -8411,7 +8601,10 @@
         <v>640</v>
       </c>
       <c r="AL18" t="n">
-        <v>630</v>
+        <v>642</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>588</v>
       </c>
     </row>
     <row r="19">
@@ -8531,7 +8724,10 @@
         <v>596</v>
       </c>
       <c r="AL19" t="n">
-        <v>605</v>
+        <v>619</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>623</v>
       </c>
     </row>
     <row r="20">
@@ -8651,7 +8847,10 @@
         <v>244</v>
       </c>
       <c r="AL20" t="n">
-        <v>302</v>
+        <v>307</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>297</v>
       </c>
     </row>
     <row r="21">
@@ -8771,7 +8970,10 @@
         <v>522</v>
       </c>
       <c r="AL21" t="n">
-        <v>537</v>
+        <v>544</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>504</v>
       </c>
     </row>
     <row r="22">
@@ -8891,7 +9093,10 @@
         <v>290</v>
       </c>
       <c r="AL22" t="n">
-        <v>318</v>
+        <v>333</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>316</v>
       </c>
     </row>
     <row r="23">
@@ -9011,13 +9216,16 @@
         <v>182</v>
       </c>
       <c r="AL23" t="n">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Strategie domácností, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -9057,6 +9265,7 @@
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
